--- a/Excel/SampleMetadata_Mobile.xlsx
+++ b/Excel/SampleMetadata_Mobile.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3409" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10141" uniqueCount="996">
   <si>
     <t>Result ID</t>
   </si>
@@ -1117,6 +1117,1911 @@
   </si>
   <si>
     <t>A1477112</t>
+  </si>
+  <si>
+    <t>A1479101</t>
+  </si>
+  <si>
+    <t>1374006</t>
+  </si>
+  <si>
+    <t>20220725-Cocci-14357</t>
+  </si>
+  <si>
+    <t>TestComplexSite_20220725</t>
+  </si>
+  <si>
+    <t>TestFarm1_20220725</t>
+  </si>
+  <si>
+    <t>07/25/2022</t>
+  </si>
+  <si>
+    <t>8:43 AM</t>
+  </si>
+  <si>
+    <t>CartridgeCocci4357</t>
+  </si>
+  <si>
+    <t>A1479102</t>
+  </si>
+  <si>
+    <t>A1479103</t>
+  </si>
+  <si>
+    <t>A1479104</t>
+  </si>
+  <si>
+    <t>A1479105</t>
+  </si>
+  <si>
+    <t>A1479106</t>
+  </si>
+  <si>
+    <t>A1479107</t>
+  </si>
+  <si>
+    <t>A1479108</t>
+  </si>
+  <si>
+    <t>A1479109</t>
+  </si>
+  <si>
+    <t>A1479110</t>
+  </si>
+  <si>
+    <t>A1479111</t>
+  </si>
+  <si>
+    <t>A1479112</t>
+  </si>
+  <si>
+    <t>A1479201</t>
+  </si>
+  <si>
+    <t>20220725-Cocci-24357</t>
+  </si>
+  <si>
+    <t>A1479202</t>
+  </si>
+  <si>
+    <t>A1479203</t>
+  </si>
+  <si>
+    <t>A1479204</t>
+  </si>
+  <si>
+    <t>A1479205</t>
+  </si>
+  <si>
+    <t>A1479206</t>
+  </si>
+  <si>
+    <t>A1479207</t>
+  </si>
+  <si>
+    <t>A1479208</t>
+  </si>
+  <si>
+    <t>A1479209</t>
+  </si>
+  <si>
+    <t>A1479210</t>
+  </si>
+  <si>
+    <t>A1479211</t>
+  </si>
+  <si>
+    <t>A1479212</t>
+  </si>
+  <si>
+    <t>A1479301</t>
+  </si>
+  <si>
+    <t>20220725-Cocci-34357</t>
+  </si>
+  <si>
+    <t>A1479302</t>
+  </si>
+  <si>
+    <t>A1479303</t>
+  </si>
+  <si>
+    <t>A1479304</t>
+  </si>
+  <si>
+    <t>A1479305</t>
+  </si>
+  <si>
+    <t>A1479306</t>
+  </si>
+  <si>
+    <t>A1479307</t>
+  </si>
+  <si>
+    <t>A1479308</t>
+  </si>
+  <si>
+    <t>A1479309</t>
+  </si>
+  <si>
+    <t>A1479310</t>
+  </si>
+  <si>
+    <t>A1479311</t>
+  </si>
+  <si>
+    <t>A1479312</t>
+  </si>
+  <si>
+    <t>A1479401</t>
+  </si>
+  <si>
+    <t>1374007</t>
+  </si>
+  <si>
+    <t>20220725-Cocci-44357</t>
+  </si>
+  <si>
+    <t>A1479402</t>
+  </si>
+  <si>
+    <t>A1479403</t>
+  </si>
+  <si>
+    <t>A1479404</t>
+  </si>
+  <si>
+    <t>A1479405</t>
+  </si>
+  <si>
+    <t>A1479406</t>
+  </si>
+  <si>
+    <t>A1479407</t>
+  </si>
+  <si>
+    <t>A1479408</t>
+  </si>
+  <si>
+    <t>A1479409</t>
+  </si>
+  <si>
+    <t>A1479410</t>
+  </si>
+  <si>
+    <t>A1479411</t>
+  </si>
+  <si>
+    <t>A1479412</t>
+  </si>
+  <si>
+    <t>A1479501</t>
+  </si>
+  <si>
+    <t>20220725-Cocci-54357</t>
+  </si>
+  <si>
+    <t>A1479502</t>
+  </si>
+  <si>
+    <t>A1479503</t>
+  </si>
+  <si>
+    <t>A1479504</t>
+  </si>
+  <si>
+    <t>A1479505</t>
+  </si>
+  <si>
+    <t>A1479506</t>
+  </si>
+  <si>
+    <t>A1479507</t>
+  </si>
+  <si>
+    <t>A1479508</t>
+  </si>
+  <si>
+    <t>A1479509</t>
+  </si>
+  <si>
+    <t>A1479510</t>
+  </si>
+  <si>
+    <t>A1479511</t>
+  </si>
+  <si>
+    <t>A1479512</t>
+  </si>
+  <si>
+    <t>A1479601</t>
+  </si>
+  <si>
+    <t>1374008</t>
+  </si>
+  <si>
+    <t>20220725-Cocci-64357</t>
+  </si>
+  <si>
+    <t>A1479602</t>
+  </si>
+  <si>
+    <t>A1479603</t>
+  </si>
+  <si>
+    <t>A1479604</t>
+  </si>
+  <si>
+    <t>A1479605</t>
+  </si>
+  <si>
+    <t>A1479606</t>
+  </si>
+  <si>
+    <t>A1479607</t>
+  </si>
+  <si>
+    <t>A1479608</t>
+  </si>
+  <si>
+    <t>A1479609</t>
+  </si>
+  <si>
+    <t>A1479610</t>
+  </si>
+  <si>
+    <t>A1479611</t>
+  </si>
+  <si>
+    <t>A1479612</t>
+  </si>
+  <si>
+    <t>A1479701</t>
+  </si>
+  <si>
+    <t>20220725-Cocci-74357</t>
+  </si>
+  <si>
+    <t>08/05/2022</t>
+  </si>
+  <si>
+    <t>A1479702</t>
+  </si>
+  <si>
+    <t>A1479703</t>
+  </si>
+  <si>
+    <t>A1479704</t>
+  </si>
+  <si>
+    <t>A1479705</t>
+  </si>
+  <si>
+    <t>A1479706</t>
+  </si>
+  <si>
+    <t>A1479707</t>
+  </si>
+  <si>
+    <t>A1479708</t>
+  </si>
+  <si>
+    <t>A1479709</t>
+  </si>
+  <si>
+    <t>A1479710</t>
+  </si>
+  <si>
+    <t>A1479711</t>
+  </si>
+  <si>
+    <t>A1479712</t>
+  </si>
+  <si>
+    <t>A1479901</t>
+  </si>
+  <si>
+    <t>20220725-Cocci-84357</t>
+  </si>
+  <si>
+    <t>08/25/2022</t>
+  </si>
+  <si>
+    <t>A1479902</t>
+  </si>
+  <si>
+    <t>A1479903</t>
+  </si>
+  <si>
+    <t>A1479904</t>
+  </si>
+  <si>
+    <t>A1479905</t>
+  </si>
+  <si>
+    <t>A1479906</t>
+  </si>
+  <si>
+    <t>A1479907</t>
+  </si>
+  <si>
+    <t>A1479908</t>
+  </si>
+  <si>
+    <t>A1479909</t>
+  </si>
+  <si>
+    <t>A1479910</t>
+  </si>
+  <si>
+    <t>A1479911</t>
+  </si>
+  <si>
+    <t>A1479912</t>
+  </si>
+  <si>
+    <t>A1480001</t>
+  </si>
+  <si>
+    <t>1374009</t>
+  </si>
+  <si>
+    <t>20220725-Cocci-94357</t>
+  </si>
+  <si>
+    <t>A1480002</t>
+  </si>
+  <si>
+    <t>A1480003</t>
+  </si>
+  <si>
+    <t>A1480004</t>
+  </si>
+  <si>
+    <t>A1480005</t>
+  </si>
+  <si>
+    <t>A1480006</t>
+  </si>
+  <si>
+    <t>A1480007</t>
+  </si>
+  <si>
+    <t>A1480008</t>
+  </si>
+  <si>
+    <t>A1480009</t>
+  </si>
+  <si>
+    <t>A1480010</t>
+  </si>
+  <si>
+    <t>A1480011</t>
+  </si>
+  <si>
+    <t>A1480012</t>
+  </si>
+  <si>
+    <t>A1480101</t>
+  </si>
+  <si>
+    <t>1374010</t>
+  </si>
+  <si>
+    <t>20220725-Cocci-104357</t>
+  </si>
+  <si>
+    <t>A1480102</t>
+  </si>
+  <si>
+    <t>A1480103</t>
+  </si>
+  <si>
+    <t>A1480104</t>
+  </si>
+  <si>
+    <t>A1480105</t>
+  </si>
+  <si>
+    <t>A1480106</t>
+  </si>
+  <si>
+    <t>A1480107</t>
+  </si>
+  <si>
+    <t>A1480108</t>
+  </si>
+  <si>
+    <t>A1480109</t>
+  </si>
+  <si>
+    <t>A1480110</t>
+  </si>
+  <si>
+    <t>A1480111</t>
+  </si>
+  <si>
+    <t>A1480112</t>
+  </si>
+  <si>
+    <t>A1480201</t>
+  </si>
+  <si>
+    <t>20220725-Cocci-10839</t>
+  </si>
+  <si>
+    <t>10:08 AM</t>
+  </si>
+  <si>
+    <t>CartridgeCocci0839</t>
+  </si>
+  <si>
+    <t>A1480202</t>
+  </si>
+  <si>
+    <t>A1480203</t>
+  </si>
+  <si>
+    <t>A1480204</t>
+  </si>
+  <si>
+    <t>A1480205</t>
+  </si>
+  <si>
+    <t>A1480206</t>
+  </si>
+  <si>
+    <t>A1480207</t>
+  </si>
+  <si>
+    <t>A1480208</t>
+  </si>
+  <si>
+    <t>A1480209</t>
+  </si>
+  <si>
+    <t>A1480210</t>
+  </si>
+  <si>
+    <t>A1480211</t>
+  </si>
+  <si>
+    <t>A1480212</t>
+  </si>
+  <si>
+    <t>A1480301</t>
+  </si>
+  <si>
+    <t>20220725-Cocci-20839</t>
+  </si>
+  <si>
+    <t>A1480302</t>
+  </si>
+  <si>
+    <t>A1480303</t>
+  </si>
+  <si>
+    <t>A1480304</t>
+  </si>
+  <si>
+    <t>A1480305</t>
+  </si>
+  <si>
+    <t>A1480306</t>
+  </si>
+  <si>
+    <t>A1480307</t>
+  </si>
+  <si>
+    <t>A1480308</t>
+  </si>
+  <si>
+    <t>A1480309</t>
+  </si>
+  <si>
+    <t>A1480310</t>
+  </si>
+  <si>
+    <t>A1480311</t>
+  </si>
+  <si>
+    <t>A1480312</t>
+  </si>
+  <si>
+    <t>A1480401</t>
+  </si>
+  <si>
+    <t>20220725-Cocci-30839</t>
+  </si>
+  <si>
+    <t>A1480402</t>
+  </si>
+  <si>
+    <t>A1480403</t>
+  </si>
+  <si>
+    <t>A1480404</t>
+  </si>
+  <si>
+    <t>A1480405</t>
+  </si>
+  <si>
+    <t>A1480406</t>
+  </si>
+  <si>
+    <t>A1480407</t>
+  </si>
+  <si>
+    <t>A1480408</t>
+  </si>
+  <si>
+    <t>A1480409</t>
+  </si>
+  <si>
+    <t>A1480410</t>
+  </si>
+  <si>
+    <t>A1480411</t>
+  </si>
+  <si>
+    <t>A1480412</t>
+  </si>
+  <si>
+    <t>A1480501</t>
+  </si>
+  <si>
+    <t>20220725-Cocci-40839</t>
+  </si>
+  <si>
+    <t>A1480502</t>
+  </si>
+  <si>
+    <t>A1480503</t>
+  </si>
+  <si>
+    <t>A1480504</t>
+  </si>
+  <si>
+    <t>A1480505</t>
+  </si>
+  <si>
+    <t>A1480506</t>
+  </si>
+  <si>
+    <t>A1480507</t>
+  </si>
+  <si>
+    <t>A1480508</t>
+  </si>
+  <si>
+    <t>A1480509</t>
+  </si>
+  <si>
+    <t>A1480510</t>
+  </si>
+  <si>
+    <t>A1480511</t>
+  </si>
+  <si>
+    <t>A1480512</t>
+  </si>
+  <si>
+    <t>A1480601</t>
+  </si>
+  <si>
+    <t>20220725-Cocci-50839</t>
+  </si>
+  <si>
+    <t>A1480602</t>
+  </si>
+  <si>
+    <t>A1480603</t>
+  </si>
+  <si>
+    <t>A1480604</t>
+  </si>
+  <si>
+    <t>A1480605</t>
+  </si>
+  <si>
+    <t>A1480606</t>
+  </si>
+  <si>
+    <t>A1480607</t>
+  </si>
+  <si>
+    <t>A1480608</t>
+  </si>
+  <si>
+    <t>A1480609</t>
+  </si>
+  <si>
+    <t>A1480610</t>
+  </si>
+  <si>
+    <t>A1480611</t>
+  </si>
+  <si>
+    <t>A1480612</t>
+  </si>
+  <si>
+    <t>A1480701</t>
+  </si>
+  <si>
+    <t>20220725-Cocci-60839</t>
+  </si>
+  <si>
+    <t>A1480702</t>
+  </si>
+  <si>
+    <t>A1480703</t>
+  </si>
+  <si>
+    <t>A1480704</t>
+  </si>
+  <si>
+    <t>A1480705</t>
+  </si>
+  <si>
+    <t>A1480706</t>
+  </si>
+  <si>
+    <t>A1480707</t>
+  </si>
+  <si>
+    <t>A1480708</t>
+  </si>
+  <si>
+    <t>A1480709</t>
+  </si>
+  <si>
+    <t>A1480710</t>
+  </si>
+  <si>
+    <t>A1480711</t>
+  </si>
+  <si>
+    <t>A1480712</t>
+  </si>
+  <si>
+    <t>A1480801</t>
+  </si>
+  <si>
+    <t>20220725-Cocci-70839</t>
+  </si>
+  <si>
+    <t>A1480802</t>
+  </si>
+  <si>
+    <t>A1480803</t>
+  </si>
+  <si>
+    <t>A1480804</t>
+  </si>
+  <si>
+    <t>A1480805</t>
+  </si>
+  <si>
+    <t>A1480806</t>
+  </si>
+  <si>
+    <t>A1480807</t>
+  </si>
+  <si>
+    <t>A1480808</t>
+  </si>
+  <si>
+    <t>A1480809</t>
+  </si>
+  <si>
+    <t>A1480810</t>
+  </si>
+  <si>
+    <t>A1480811</t>
+  </si>
+  <si>
+    <t>A1480812</t>
+  </si>
+  <si>
+    <t>A1480901</t>
+  </si>
+  <si>
+    <t>20220725-Cocci-80839</t>
+  </si>
+  <si>
+    <t>A1480902</t>
+  </si>
+  <si>
+    <t>A1480903</t>
+  </si>
+  <si>
+    <t>A1480904</t>
+  </si>
+  <si>
+    <t>A1480905</t>
+  </si>
+  <si>
+    <t>A1480906</t>
+  </si>
+  <si>
+    <t>A1480907</t>
+  </si>
+  <si>
+    <t>A1480908</t>
+  </si>
+  <si>
+    <t>A1480909</t>
+  </si>
+  <si>
+    <t>A1480910</t>
+  </si>
+  <si>
+    <t>A1480911</t>
+  </si>
+  <si>
+    <t>A1480912</t>
+  </si>
+  <si>
+    <t>A1481001</t>
+  </si>
+  <si>
+    <t>20220725-Cocci-90839</t>
+  </si>
+  <si>
+    <t>A1481002</t>
+  </si>
+  <si>
+    <t>A1481003</t>
+  </si>
+  <si>
+    <t>A1481004</t>
+  </si>
+  <si>
+    <t>A1481005</t>
+  </si>
+  <si>
+    <t>A1481006</t>
+  </si>
+  <si>
+    <t>A1481007</t>
+  </si>
+  <si>
+    <t>A1481008</t>
+  </si>
+  <si>
+    <t>A1481009</t>
+  </si>
+  <si>
+    <t>A1481010</t>
+  </si>
+  <si>
+    <t>A1481011</t>
+  </si>
+  <si>
+    <t>A1481012</t>
+  </si>
+  <si>
+    <t>A1481101</t>
+  </si>
+  <si>
+    <t>20220725-Cocci-100839</t>
+  </si>
+  <si>
+    <t>A1481102</t>
+  </si>
+  <si>
+    <t>A1481103</t>
+  </si>
+  <si>
+    <t>A1481104</t>
+  </si>
+  <si>
+    <t>A1481105</t>
+  </si>
+  <si>
+    <t>A1481106</t>
+  </si>
+  <si>
+    <t>A1481107</t>
+  </si>
+  <si>
+    <t>A1481108</t>
+  </si>
+  <si>
+    <t>A1481109</t>
+  </si>
+  <si>
+    <t>A1481110</t>
+  </si>
+  <si>
+    <t>A1481111</t>
+  </si>
+  <si>
+    <t>A1481112</t>
+  </si>
+  <si>
+    <t>A1481401</t>
+  </si>
+  <si>
+    <t>20220725-Cocci-11314</t>
+  </si>
+  <si>
+    <t>A02626</t>
+  </si>
+  <si>
+    <t>11:13 AM</t>
+  </si>
+  <si>
+    <t>CartridgeCocci1314</t>
+  </si>
+  <si>
+    <t>A1481402</t>
+  </si>
+  <si>
+    <t>A1481403</t>
+  </si>
+  <si>
+    <t>A1481404</t>
+  </si>
+  <si>
+    <t>A1481405</t>
+  </si>
+  <si>
+    <t>A1481406</t>
+  </si>
+  <si>
+    <t>A1481407</t>
+  </si>
+  <si>
+    <t>A1481408</t>
+  </si>
+  <si>
+    <t>A1481409</t>
+  </si>
+  <si>
+    <t>A1481410</t>
+  </si>
+  <si>
+    <t>A1481411</t>
+  </si>
+  <si>
+    <t>A1481412</t>
+  </si>
+  <si>
+    <t>A1481801</t>
+  </si>
+  <si>
+    <t>20220725-Cocci-43715</t>
+  </si>
+  <si>
+    <t>A02627</t>
+  </si>
+  <si>
+    <t>12:37 PM</t>
+  </si>
+  <si>
+    <t>CartridgeCocci3715</t>
+  </si>
+  <si>
+    <t>A1481802</t>
+  </si>
+  <si>
+    <t>A1481803</t>
+  </si>
+  <si>
+    <t>A1481804</t>
+  </si>
+  <si>
+    <t>A1481805</t>
+  </si>
+  <si>
+    <t>A1481806</t>
+  </si>
+  <si>
+    <t>A1481807</t>
+  </si>
+  <si>
+    <t>A1481808</t>
+  </si>
+  <si>
+    <t>A1481809</t>
+  </si>
+  <si>
+    <t>A1481810</t>
+  </si>
+  <si>
+    <t>A1481811</t>
+  </si>
+  <si>
+    <t>A1481812</t>
+  </si>
+  <si>
+    <t>A1481901</t>
+  </si>
+  <si>
+    <t>20220725-Cocci-53715</t>
+  </si>
+  <si>
+    <t>A1481902</t>
+  </si>
+  <si>
+    <t>A1481903</t>
+  </si>
+  <si>
+    <t>A1481904</t>
+  </si>
+  <si>
+    <t>A1481905</t>
+  </si>
+  <si>
+    <t>A1481906</t>
+  </si>
+  <si>
+    <t>A1481907</t>
+  </si>
+  <si>
+    <t>A1481908</t>
+  </si>
+  <si>
+    <t>A1481909</t>
+  </si>
+  <si>
+    <t>A1481910</t>
+  </si>
+  <si>
+    <t>A1481911</t>
+  </si>
+  <si>
+    <t>A1481912</t>
+  </si>
+  <si>
+    <t>A1482001</t>
+  </si>
+  <si>
+    <t>20220725-Cocci-63715</t>
+  </si>
+  <si>
+    <t>A1482002</t>
+  </si>
+  <si>
+    <t>A1482003</t>
+  </si>
+  <si>
+    <t>A1482004</t>
+  </si>
+  <si>
+    <t>A1482005</t>
+  </si>
+  <si>
+    <t>A1482006</t>
+  </si>
+  <si>
+    <t>A1482007</t>
+  </si>
+  <si>
+    <t>A1482008</t>
+  </si>
+  <si>
+    <t>A1482009</t>
+  </si>
+  <si>
+    <t>A1482010</t>
+  </si>
+  <si>
+    <t>A1482011</t>
+  </si>
+  <si>
+    <t>A1482012</t>
+  </si>
+  <si>
+    <t>A1482101</t>
+  </si>
+  <si>
+    <t>20220725-Cocci-73715</t>
+  </si>
+  <si>
+    <t>A02628</t>
+  </si>
+  <si>
+    <t>A1482102</t>
+  </si>
+  <si>
+    <t>A1482103</t>
+  </si>
+  <si>
+    <t>A1482104</t>
+  </si>
+  <si>
+    <t>A1482105</t>
+  </si>
+  <si>
+    <t>A1482106</t>
+  </si>
+  <si>
+    <t>A1482107</t>
+  </si>
+  <si>
+    <t>A1482108</t>
+  </si>
+  <si>
+    <t>A1482109</t>
+  </si>
+  <si>
+    <t>A1482110</t>
+  </si>
+  <si>
+    <t>A1482111</t>
+  </si>
+  <si>
+    <t>A1482112</t>
+  </si>
+  <si>
+    <t>A1482206</t>
+  </si>
+  <si>
+    <t>20220725-Cocci-83715</t>
+  </si>
+  <si>
+    <t>A1482207</t>
+  </si>
+  <si>
+    <t>A1482208</t>
+  </si>
+  <si>
+    <t>A1482209</t>
+  </si>
+  <si>
+    <t>A1482210</t>
+  </si>
+  <si>
+    <t>A1482211</t>
+  </si>
+  <si>
+    <t>A1482212</t>
+  </si>
+  <si>
+    <t>A1482201</t>
+  </si>
+  <si>
+    <t>A1482202</t>
+  </si>
+  <si>
+    <t>A1482203</t>
+  </si>
+  <si>
+    <t>A1482204</t>
+  </si>
+  <si>
+    <t>A1482205</t>
+  </si>
+  <si>
+    <t>A1482401</t>
+  </si>
+  <si>
+    <t>20220725-Cocci-93715</t>
+  </si>
+  <si>
+    <t>A1482402</t>
+  </si>
+  <si>
+    <t>A1482403</t>
+  </si>
+  <si>
+    <t>A1482404</t>
+  </si>
+  <si>
+    <t>A1482405</t>
+  </si>
+  <si>
+    <t>A1482406</t>
+  </si>
+  <si>
+    <t>A1482407</t>
+  </si>
+  <si>
+    <t>A1482408</t>
+  </si>
+  <si>
+    <t>A1482409</t>
+  </si>
+  <si>
+    <t>A1482410</t>
+  </si>
+  <si>
+    <t>A1482411</t>
+  </si>
+  <si>
+    <t>A1482412</t>
+  </si>
+  <si>
+    <t>A1482501</t>
+  </si>
+  <si>
+    <t>20220725-Cocci-103715</t>
+  </si>
+  <si>
+    <t>A02629</t>
+  </si>
+  <si>
+    <t>A1482502</t>
+  </si>
+  <si>
+    <t>A1482503</t>
+  </si>
+  <si>
+    <t>A1482504</t>
+  </si>
+  <si>
+    <t>A1482505</t>
+  </si>
+  <si>
+    <t>A1482506</t>
+  </si>
+  <si>
+    <t>A1482507</t>
+  </si>
+  <si>
+    <t>A1482508</t>
+  </si>
+  <si>
+    <t>A1482509</t>
+  </si>
+  <si>
+    <t>A1482510</t>
+  </si>
+  <si>
+    <t>A1482511</t>
+  </si>
+  <si>
+    <t>A1482512</t>
+  </si>
+  <si>
+    <t>A1483406</t>
+  </si>
+  <si>
+    <t>1377006</t>
+  </si>
+  <si>
+    <t>20220726-Cocci-15301</t>
+  </si>
+  <si>
+    <t>A02636</t>
+  </si>
+  <si>
+    <t>TestComplexSite_20220726</t>
+  </si>
+  <si>
+    <t>TestFarm1_20220726</t>
+  </si>
+  <si>
+    <t>07/26/2022</t>
+  </si>
+  <si>
+    <t>10:53 AM</t>
+  </si>
+  <si>
+    <t>CartridgeCocci5301</t>
+  </si>
+  <si>
+    <t>A1483407</t>
+  </si>
+  <si>
+    <t>A1483408</t>
+  </si>
+  <si>
+    <t>A1483409</t>
+  </si>
+  <si>
+    <t>A1483410</t>
+  </si>
+  <si>
+    <t>A1483411</t>
+  </si>
+  <si>
+    <t>A1483412</t>
+  </si>
+  <si>
+    <t>A1483401</t>
+  </si>
+  <si>
+    <t>A1483402</t>
+  </si>
+  <si>
+    <t>A1483403</t>
+  </si>
+  <si>
+    <t>A1483404</t>
+  </si>
+  <si>
+    <t>A1483405</t>
+  </si>
+  <si>
+    <t>A1483501</t>
+  </si>
+  <si>
+    <t>20220726-Cocci-25301</t>
+  </si>
+  <si>
+    <t>A1483502</t>
+  </si>
+  <si>
+    <t>A1483503</t>
+  </si>
+  <si>
+    <t>A1483504</t>
+  </si>
+  <si>
+    <t>A1483505</t>
+  </si>
+  <si>
+    <t>A1483506</t>
+  </si>
+  <si>
+    <t>A1483507</t>
+  </si>
+  <si>
+    <t>A1483508</t>
+  </si>
+  <si>
+    <t>A1483509</t>
+  </si>
+  <si>
+    <t>A1483510</t>
+  </si>
+  <si>
+    <t>A1483511</t>
+  </si>
+  <si>
+    <t>A1483512</t>
+  </si>
+  <si>
+    <t>A1483601</t>
+  </si>
+  <si>
+    <t>20220726-Cocci-35301</t>
+  </si>
+  <si>
+    <t>A1483602</t>
+  </si>
+  <si>
+    <t>A1483603</t>
+  </si>
+  <si>
+    <t>A1483604</t>
+  </si>
+  <si>
+    <t>A1483605</t>
+  </si>
+  <si>
+    <t>A1483606</t>
+  </si>
+  <si>
+    <t>A1483607</t>
+  </si>
+  <si>
+    <t>A1483608</t>
+  </si>
+  <si>
+    <t>A1483609</t>
+  </si>
+  <si>
+    <t>A1483610</t>
+  </si>
+  <si>
+    <t>A1483611</t>
+  </si>
+  <si>
+    <t>A1483612</t>
+  </si>
+  <si>
+    <t>A1484001</t>
+  </si>
+  <si>
+    <t>1378006</t>
+  </si>
+  <si>
+    <t>20220727-Cocci-13251</t>
+  </si>
+  <si>
+    <t>A02638</t>
+  </si>
+  <si>
+    <t>TestComplexSite_20220727</t>
+  </si>
+  <si>
+    <t>TestFarm1_20220727</t>
+  </si>
+  <si>
+    <t>07/27/2022</t>
+  </si>
+  <si>
+    <t>5:32 AM</t>
+  </si>
+  <si>
+    <t>CartridgeCocci3251</t>
+  </si>
+  <si>
+    <t>A1484002</t>
+  </si>
+  <si>
+    <t>A1484003</t>
+  </si>
+  <si>
+    <t>A1484004</t>
+  </si>
+  <si>
+    <t>A1484005</t>
+  </si>
+  <si>
+    <t>A1484006</t>
+  </si>
+  <si>
+    <t>A1484007</t>
+  </si>
+  <si>
+    <t>A1484008</t>
+  </si>
+  <si>
+    <t>A1484009</t>
+  </si>
+  <si>
+    <t>A1484010</t>
+  </si>
+  <si>
+    <t>A1484011</t>
+  </si>
+  <si>
+    <t>A1484012</t>
+  </si>
+  <si>
+    <t>A1484101</t>
+  </si>
+  <si>
+    <t>20220727-Cocci-23251</t>
+  </si>
+  <si>
+    <t>A1484102</t>
+  </si>
+  <si>
+    <t>A1484103</t>
+  </si>
+  <si>
+    <t>A1484104</t>
+  </si>
+  <si>
+    <t>A1484105</t>
+  </si>
+  <si>
+    <t>A1484106</t>
+  </si>
+  <si>
+    <t>A1484107</t>
+  </si>
+  <si>
+    <t>A1484108</t>
+  </si>
+  <si>
+    <t>A1484109</t>
+  </si>
+  <si>
+    <t>A1484110</t>
+  </si>
+  <si>
+    <t>A1484111</t>
+  </si>
+  <si>
+    <t>A1484112</t>
+  </si>
+  <si>
+    <t>A1484201</t>
+  </si>
+  <si>
+    <t>20220727-Cocci-33251</t>
+  </si>
+  <si>
+    <t>A1484202</t>
+  </si>
+  <si>
+    <t>A1484203</t>
+  </si>
+  <si>
+    <t>A1484204</t>
+  </si>
+  <si>
+    <t>A1484205</t>
+  </si>
+  <si>
+    <t>A1484206</t>
+  </si>
+  <si>
+    <t>A1484207</t>
+  </si>
+  <si>
+    <t>A1484208</t>
+  </si>
+  <si>
+    <t>A1484209</t>
+  </si>
+  <si>
+    <t>A1484210</t>
+  </si>
+  <si>
+    <t>A1484211</t>
+  </si>
+  <si>
+    <t>A1484212</t>
+  </si>
+  <si>
+    <t>A1484301</t>
+  </si>
+  <si>
+    <t>1378007</t>
+  </si>
+  <si>
+    <t>20220727-Cocci-43251</t>
+  </si>
+  <si>
+    <t>A1484302</t>
+  </si>
+  <si>
+    <t>A1484303</t>
+  </si>
+  <si>
+    <t>A1484304</t>
+  </si>
+  <si>
+    <t>A1484305</t>
+  </si>
+  <si>
+    <t>A1484306</t>
+  </si>
+  <si>
+    <t>A1484307</t>
+  </si>
+  <si>
+    <t>A1484308</t>
+  </si>
+  <si>
+    <t>A1484309</t>
+  </si>
+  <si>
+    <t>A1484310</t>
+  </si>
+  <si>
+    <t>A1484311</t>
+  </si>
+  <si>
+    <t>A1484312</t>
+  </si>
+  <si>
+    <t>A1484401</t>
+  </si>
+  <si>
+    <t>20220727-Cocci-53251</t>
+  </si>
+  <si>
+    <t>A1484402</t>
+  </si>
+  <si>
+    <t>A1484403</t>
+  </si>
+  <si>
+    <t>A1484404</t>
+  </si>
+  <si>
+    <t>A1484405</t>
+  </si>
+  <si>
+    <t>A1484406</t>
+  </si>
+  <si>
+    <t>A1484407</t>
+  </si>
+  <si>
+    <t>A1484408</t>
+  </si>
+  <si>
+    <t>A1484409</t>
+  </si>
+  <si>
+    <t>A1484410</t>
+  </si>
+  <si>
+    <t>A1484411</t>
+  </si>
+  <si>
+    <t>A1484412</t>
+  </si>
+  <si>
+    <t>A1484501</t>
+  </si>
+  <si>
+    <t>1378008</t>
+  </si>
+  <si>
+    <t>20220727-Cocci-63251</t>
+  </si>
+  <si>
+    <t>A1484502</t>
+  </si>
+  <si>
+    <t>A1484503</t>
+  </si>
+  <si>
+    <t>A1484504</t>
+  </si>
+  <si>
+    <t>A1484505</t>
+  </si>
+  <si>
+    <t>A1484506</t>
+  </si>
+  <si>
+    <t>A1484507</t>
+  </si>
+  <si>
+    <t>A1484508</t>
+  </si>
+  <si>
+    <t>A1484509</t>
+  </si>
+  <si>
+    <t>A1484510</t>
+  </si>
+  <si>
+    <t>A1484511</t>
+  </si>
+  <si>
+    <t>A1484512</t>
+  </si>
+  <si>
+    <t>A1484601</t>
+  </si>
+  <si>
+    <t>20220727-Cocci-42705</t>
+  </si>
+  <si>
+    <t>A02639</t>
+  </si>
+  <si>
+    <t>6:27 AM</t>
+  </si>
+  <si>
+    <t>CartridgeCocci2705</t>
+  </si>
+  <si>
+    <t>A1484602</t>
+  </si>
+  <si>
+    <t>A1484603</t>
+  </si>
+  <si>
+    <t>A1484604</t>
+  </si>
+  <si>
+    <t>A1484605</t>
+  </si>
+  <si>
+    <t>A1484606</t>
+  </si>
+  <si>
+    <t>A1484607</t>
+  </si>
+  <si>
+    <t>A1484608</t>
+  </si>
+  <si>
+    <t>A1484609</t>
+  </si>
+  <si>
+    <t>A1484610</t>
+  </si>
+  <si>
+    <t>A1484611</t>
+  </si>
+  <si>
+    <t>A1484612</t>
+  </si>
+  <si>
+    <t>A1484701</t>
+  </si>
+  <si>
+    <t>20220727-Cocci-52705</t>
+  </si>
+  <si>
+    <t>A1484702</t>
+  </si>
+  <si>
+    <t>A1484703</t>
+  </si>
+  <si>
+    <t>A1484704</t>
+  </si>
+  <si>
+    <t>A1484705</t>
+  </si>
+  <si>
+    <t>A1484706</t>
+  </si>
+  <si>
+    <t>A1484707</t>
+  </si>
+  <si>
+    <t>A1484708</t>
+  </si>
+  <si>
+    <t>A1484709</t>
+  </si>
+  <si>
+    <t>A1484710</t>
+  </si>
+  <si>
+    <t>A1484711</t>
+  </si>
+  <si>
+    <t>A1484712</t>
+  </si>
+  <si>
+    <t>A1484806</t>
+  </si>
+  <si>
+    <t>20220727-Cocci-62705</t>
+  </si>
+  <si>
+    <t>A1484807</t>
+  </si>
+  <si>
+    <t>A1484808</t>
+  </si>
+  <si>
+    <t>A1484809</t>
+  </si>
+  <si>
+    <t>A1484810</t>
+  </si>
+  <si>
+    <t>A1484811</t>
+  </si>
+  <si>
+    <t>A1484812</t>
+  </si>
+  <si>
+    <t>A1484801</t>
+  </si>
+  <si>
+    <t>A1484802</t>
+  </si>
+  <si>
+    <t>A1484803</t>
+  </si>
+  <si>
+    <t>A1484804</t>
+  </si>
+  <si>
+    <t>A1484805</t>
+  </si>
+  <si>
+    <t>A1485101</t>
+  </si>
+  <si>
+    <t>20220727-Cocci-65652</t>
+  </si>
+  <si>
+    <t>7:56 AM</t>
+  </si>
+  <si>
+    <t>CartridgeCocci5652</t>
+  </si>
+  <si>
+    <t>A1485102</t>
+  </si>
+  <si>
+    <t>A1485103</t>
+  </si>
+  <si>
+    <t>A1485104</t>
+  </si>
+  <si>
+    <t>A1485105</t>
+  </si>
+  <si>
+    <t>A1485106</t>
+  </si>
+  <si>
+    <t>A1485107</t>
+  </si>
+  <si>
+    <t>A1485108</t>
+  </si>
+  <si>
+    <t>A1485109</t>
+  </si>
+  <si>
+    <t>A1485110</t>
+  </si>
+  <si>
+    <t>A1485111</t>
+  </si>
+  <si>
+    <t>A1485112</t>
+  </si>
+  <si>
+    <t>A1485201</t>
+  </si>
+  <si>
+    <t>20220727-Cocci-70443</t>
+  </si>
+  <si>
+    <t>A02640</t>
+  </si>
+  <si>
+    <t>8:04 AM</t>
+  </si>
+  <si>
+    <t>CartridgeCocci0443</t>
+  </si>
+  <si>
+    <t>A1485202</t>
+  </si>
+  <si>
+    <t>A1485203</t>
+  </si>
+  <si>
+    <t>A1485204</t>
+  </si>
+  <si>
+    <t>A1485205</t>
+  </si>
+  <si>
+    <t>A1485206</t>
+  </si>
+  <si>
+    <t>A1485207</t>
+  </si>
+  <si>
+    <t>A1485208</t>
+  </si>
+  <si>
+    <t>A1485209</t>
+  </si>
+  <si>
+    <t>A1485210</t>
+  </si>
+  <si>
+    <t>A1485211</t>
+  </si>
+  <si>
+    <t>A1485212</t>
+  </si>
+  <si>
+    <t>A1485301</t>
+  </si>
+  <si>
+    <t>20220727-Cocci-80443</t>
+  </si>
+  <si>
+    <t>A1485302</t>
+  </si>
+  <si>
+    <t>A1485303</t>
+  </si>
+  <si>
+    <t>A1485304</t>
+  </si>
+  <si>
+    <t>A1485305</t>
+  </si>
+  <si>
+    <t>A1485306</t>
+  </si>
+  <si>
+    <t>A1485307</t>
+  </si>
+  <si>
+    <t>A1485308</t>
+  </si>
+  <si>
+    <t>A1485309</t>
+  </si>
+  <si>
+    <t>A1485310</t>
+  </si>
+  <si>
+    <t>A1485311</t>
+  </si>
+  <si>
+    <t>A1485312</t>
+  </si>
+  <si>
+    <t>A1485401</t>
+  </si>
+  <si>
+    <t>1378009</t>
+  </si>
+  <si>
+    <t>20220727-Cocci-90443</t>
+  </si>
+  <si>
+    <t>A02641</t>
+  </si>
+  <si>
+    <t>A1485402</t>
+  </si>
+  <si>
+    <t>A1485403</t>
+  </si>
+  <si>
+    <t>A1485404</t>
+  </si>
+  <si>
+    <t>A1485405</t>
+  </si>
+  <si>
+    <t>A1485406</t>
+  </si>
+  <si>
+    <t>A1485407</t>
+  </si>
+  <si>
+    <t>A1485408</t>
+  </si>
+  <si>
+    <t>A1485409</t>
+  </si>
+  <si>
+    <t>A1485410</t>
+  </si>
+  <si>
+    <t>A1485411</t>
+  </si>
+  <si>
+    <t>A1485412</t>
+  </si>
+  <si>
+    <t>A1485501</t>
+  </si>
+  <si>
+    <t>1378010</t>
+  </si>
+  <si>
+    <t>20220727-Cocci-100443</t>
+  </si>
+  <si>
+    <t>A02642</t>
+  </si>
+  <si>
+    <t>A1485502</t>
+  </si>
+  <si>
+    <t>A1485503</t>
+  </si>
+  <si>
+    <t>A1485504</t>
+  </si>
+  <si>
+    <t>A1485505</t>
+  </si>
+  <si>
+    <t>A1485506</t>
+  </si>
+  <si>
+    <t>A1485507</t>
+  </si>
+  <si>
+    <t>A1485508</t>
+  </si>
+  <si>
+    <t>A1485509</t>
+  </si>
+  <si>
+    <t>A1485510</t>
+  </si>
+  <si>
+    <t>A1485511</t>
+  </si>
+  <si>
+    <t>A1485512</t>
   </si>
 </sst>
 </file>
@@ -1574,10 +3479,10 @@
     </row>
     <row r="2" spans="1:25" ht="16.2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>344</v>
+        <v>981</v>
       </c>
       <c r="B2" t="s">
-        <v>345</v>
+        <v>982</v>
       </c>
       <c r="C2" t="s">
         <v>25</v>
@@ -1586,7 +3491,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>346</v>
+        <v>983</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
@@ -1601,7 +3506,7 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>319</v>
+        <v>984</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -1610,10 +3515,10 @@
         <v>25</v>
       </c>
       <c r="M2" t="s">
-        <v>276</v>
+        <v>797</v>
       </c>
       <c r="N2" t="s">
-        <v>277</v>
+        <v>798</v>
       </c>
       <c r="O2" t="s">
         <v>25</v>
@@ -1625,13 +3530,13 @@
         <v>28</v>
       </c>
       <c r="R2" t="s">
-        <v>97</v>
+        <v>799</v>
       </c>
       <c r="S2" t="s">
-        <v>347</v>
+        <v>940</v>
       </c>
       <c r="T2" t="s">
-        <v>348</v>
+        <v>941</v>
       </c>
       <c r="U2" t="s">
         <v>26</v>
@@ -1643,7 +3548,7 @@
         <v>25</v>
       </c>
       <c r="X2" t="s">
-        <v>349</v>
+        <v>67</v>
       </c>
       <c r="Y2" t="s">
         <v>25</v>
@@ -1651,10 +3556,10 @@
     </row>
     <row r="3" spans="1:25" ht="16.2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>350</v>
+        <v>985</v>
       </c>
       <c r="B3" t="s">
-        <v>345</v>
+        <v>982</v>
       </c>
       <c r="C3" t="s">
         <v>25</v>
@@ -1663,7 +3568,7 @@
         <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>346</v>
+        <v>983</v>
       </c>
       <c r="F3" t="s">
         <v>25</v>
@@ -1678,7 +3583,7 @@
         <v>25</v>
       </c>
       <c r="J3" t="s">
-        <v>319</v>
+        <v>984</v>
       </c>
       <c r="K3" t="s">
         <v>25</v>
@@ -1687,10 +3592,10 @@
         <v>25</v>
       </c>
       <c r="M3" t="s">
-        <v>276</v>
+        <v>797</v>
       </c>
       <c r="N3" t="s">
-        <v>277</v>
+        <v>798</v>
       </c>
       <c r="O3" t="s">
         <v>25</v>
@@ -1702,13 +3607,13 @@
         <v>29</v>
       </c>
       <c r="R3" t="s">
-        <v>97</v>
+        <v>799</v>
       </c>
       <c r="S3" t="s">
-        <v>347</v>
+        <v>940</v>
       </c>
       <c r="T3" t="s">
-        <v>348</v>
+        <v>941</v>
       </c>
       <c r="U3" t="s">
         <v>26</v>
@@ -1720,7 +3625,7 @@
         <v>25</v>
       </c>
       <c r="X3" t="s">
-        <v>349</v>
+        <v>67</v>
       </c>
       <c r="Y3" t="s">
         <v>25</v>
@@ -1728,10 +3633,10 @@
     </row>
     <row r="4" spans="1:25" ht="16.2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>351</v>
+        <v>986</v>
       </c>
       <c r="B4" t="s">
-        <v>345</v>
+        <v>982</v>
       </c>
       <c r="C4" t="s">
         <v>25</v>
@@ -1740,7 +3645,7 @@
         <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>346</v>
+        <v>983</v>
       </c>
       <c r="F4" t="s">
         <v>25</v>
@@ -1755,7 +3660,7 @@
         <v>25</v>
       </c>
       <c r="J4" t="s">
-        <v>319</v>
+        <v>984</v>
       </c>
       <c r="K4" t="s">
         <v>25</v>
@@ -1764,10 +3669,10 @@
         <v>25</v>
       </c>
       <c r="M4" t="s">
-        <v>276</v>
+        <v>797</v>
       </c>
       <c r="N4" t="s">
-        <v>277</v>
+        <v>798</v>
       </c>
       <c r="O4" t="s">
         <v>25</v>
@@ -1779,13 +3684,13 @@
         <v>30</v>
       </c>
       <c r="R4" t="s">
-        <v>97</v>
+        <v>799</v>
       </c>
       <c r="S4" t="s">
-        <v>347</v>
+        <v>940</v>
       </c>
       <c r="T4" t="s">
-        <v>348</v>
+        <v>941</v>
       </c>
       <c r="U4" t="s">
         <v>26</v>
@@ -1797,7 +3702,7 @@
         <v>25</v>
       </c>
       <c r="X4" t="s">
-        <v>349</v>
+        <v>67</v>
       </c>
       <c r="Y4" t="s">
         <v>25</v>
@@ -1805,10 +3710,10 @@
     </row>
     <row r="5" spans="1:25" ht="16.2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>352</v>
+        <v>987</v>
       </c>
       <c r="B5" t="s">
-        <v>345</v>
+        <v>982</v>
       </c>
       <c r="C5" t="s">
         <v>25</v>
@@ -1817,7 +3722,7 @@
         <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>346</v>
+        <v>983</v>
       </c>
       <c r="F5" t="s">
         <v>25</v>
@@ -1832,7 +3737,7 @@
         <v>25</v>
       </c>
       <c r="J5" t="s">
-        <v>319</v>
+        <v>984</v>
       </c>
       <c r="K5" t="s">
         <v>25</v>
@@ -1841,10 +3746,10 @@
         <v>25</v>
       </c>
       <c r="M5" t="s">
-        <v>276</v>
+        <v>797</v>
       </c>
       <c r="N5" t="s">
-        <v>277</v>
+        <v>798</v>
       </c>
       <c r="O5" t="s">
         <v>25</v>
@@ -1856,13 +3761,13 @@
         <v>31</v>
       </c>
       <c r="R5" t="s">
-        <v>97</v>
+        <v>799</v>
       </c>
       <c r="S5" t="s">
-        <v>347</v>
+        <v>940</v>
       </c>
       <c r="T5" t="s">
-        <v>348</v>
+        <v>941</v>
       </c>
       <c r="U5" t="s">
         <v>26</v>
@@ -1874,7 +3779,7 @@
         <v>25</v>
       </c>
       <c r="X5" t="s">
-        <v>349</v>
+        <v>67</v>
       </c>
       <c r="Y5" t="s">
         <v>25</v>
@@ -1882,10 +3787,10 @@
     </row>
     <row r="6" spans="1:25" ht="16.2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>353</v>
+        <v>988</v>
       </c>
       <c r="B6" t="s">
-        <v>345</v>
+        <v>982</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
@@ -1894,7 +3799,7 @@
         <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>346</v>
+        <v>983</v>
       </c>
       <c r="F6" t="s">
         <v>25</v>
@@ -1909,7 +3814,7 @@
         <v>25</v>
       </c>
       <c r="J6" t="s">
-        <v>319</v>
+        <v>984</v>
       </c>
       <c r="K6" t="s">
         <v>25</v>
@@ -1918,10 +3823,10 @@
         <v>25</v>
       </c>
       <c r="M6" t="s">
-        <v>276</v>
+        <v>797</v>
       </c>
       <c r="N6" t="s">
-        <v>277</v>
+        <v>798</v>
       </c>
       <c r="O6" t="s">
         <v>25</v>
@@ -1933,13 +3838,13 @@
         <v>32</v>
       </c>
       <c r="R6" t="s">
-        <v>97</v>
+        <v>799</v>
       </c>
       <c r="S6" t="s">
-        <v>347</v>
+        <v>940</v>
       </c>
       <c r="T6" t="s">
-        <v>348</v>
+        <v>941</v>
       </c>
       <c r="U6" t="s">
         <v>26</v>
@@ -1951,7 +3856,7 @@
         <v>25</v>
       </c>
       <c r="X6" t="s">
-        <v>349</v>
+        <v>67</v>
       </c>
       <c r="Y6" t="s">
         <v>25</v>
@@ -1959,10 +3864,10 @@
     </row>
     <row r="7" spans="1:25" ht="16.2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>354</v>
+        <v>989</v>
       </c>
       <c r="B7" t="s">
-        <v>345</v>
+        <v>982</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
@@ -1971,7 +3876,7 @@
         <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>346</v>
+        <v>983</v>
       </c>
       <c r="F7" t="s">
         <v>25</v>
@@ -1986,7 +3891,7 @@
         <v>25</v>
       </c>
       <c r="J7" t="s">
-        <v>319</v>
+        <v>984</v>
       </c>
       <c r="K7" t="s">
         <v>25</v>
@@ -1995,10 +3900,10 @@
         <v>25</v>
       </c>
       <c r="M7" t="s">
-        <v>276</v>
+        <v>797</v>
       </c>
       <c r="N7" t="s">
-        <v>277</v>
+        <v>798</v>
       </c>
       <c r="O7" t="s">
         <v>25</v>
@@ -2010,13 +3915,13 @@
         <v>33</v>
       </c>
       <c r="R7" t="s">
-        <v>97</v>
+        <v>799</v>
       </c>
       <c r="S7" t="s">
-        <v>347</v>
+        <v>940</v>
       </c>
       <c r="T7" t="s">
-        <v>348</v>
+        <v>941</v>
       </c>
       <c r="U7" t="s">
         <v>26</v>
@@ -2028,7 +3933,7 @@
         <v>25</v>
       </c>
       <c r="X7" t="s">
-        <v>349</v>
+        <v>67</v>
       </c>
       <c r="Y7" t="s">
         <v>25</v>
@@ -2036,10 +3941,10 @@
     </row>
     <row r="8" spans="1:25" ht="16.2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>355</v>
+        <v>990</v>
       </c>
       <c r="B8" t="s">
-        <v>345</v>
+        <v>982</v>
       </c>
       <c r="C8" t="s">
         <v>25</v>
@@ -2048,7 +3953,7 @@
         <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>346</v>
+        <v>983</v>
       </c>
       <c r="F8" t="s">
         <v>25</v>
@@ -2063,7 +3968,7 @@
         <v>25</v>
       </c>
       <c r="J8" t="s">
-        <v>319</v>
+        <v>984</v>
       </c>
       <c r="K8" t="s">
         <v>25</v>
@@ -2072,10 +3977,10 @@
         <v>25</v>
       </c>
       <c r="M8" t="s">
-        <v>276</v>
+        <v>797</v>
       </c>
       <c r="N8" t="s">
-        <v>277</v>
+        <v>798</v>
       </c>
       <c r="O8" t="s">
         <v>25</v>
@@ -2087,13 +3992,13 @@
         <v>34</v>
       </c>
       <c r="R8" t="s">
-        <v>97</v>
+        <v>799</v>
       </c>
       <c r="S8" t="s">
-        <v>347</v>
+        <v>940</v>
       </c>
       <c r="T8" t="s">
-        <v>348</v>
+        <v>941</v>
       </c>
       <c r="U8" t="s">
         <v>26</v>
@@ -2105,7 +4010,7 @@
         <v>25</v>
       </c>
       <c r="X8" t="s">
-        <v>349</v>
+        <v>67</v>
       </c>
       <c r="Y8" t="s">
         <v>25</v>
@@ -2113,10 +4018,10 @@
     </row>
     <row r="9" spans="1:25" ht="16.2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>356</v>
+        <v>991</v>
       </c>
       <c r="B9" t="s">
-        <v>345</v>
+        <v>982</v>
       </c>
       <c r="C9" t="s">
         <v>25</v>
@@ -2125,7 +4030,7 @@
         <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>346</v>
+        <v>983</v>
       </c>
       <c r="F9" t="s">
         <v>25</v>
@@ -2140,7 +4045,7 @@
         <v>25</v>
       </c>
       <c r="J9" t="s">
-        <v>319</v>
+        <v>984</v>
       </c>
       <c r="K9" t="s">
         <v>25</v>
@@ -2149,10 +4054,10 @@
         <v>25</v>
       </c>
       <c r="M9" t="s">
-        <v>276</v>
+        <v>797</v>
       </c>
       <c r="N9" t="s">
-        <v>277</v>
+        <v>798</v>
       </c>
       <c r="O9" t="s">
         <v>25</v>
@@ -2164,13 +4069,13 @@
         <v>35</v>
       </c>
       <c r="R9" t="s">
-        <v>97</v>
+        <v>799</v>
       </c>
       <c r="S9" t="s">
-        <v>347</v>
+        <v>940</v>
       </c>
       <c r="T9" t="s">
-        <v>348</v>
+        <v>941</v>
       </c>
       <c r="U9" t="s">
         <v>26</v>
@@ -2182,7 +4087,7 @@
         <v>25</v>
       </c>
       <c r="X9" t="s">
-        <v>349</v>
+        <v>67</v>
       </c>
       <c r="Y9" t="s">
         <v>25</v>
@@ -2190,10 +4095,10 @@
     </row>
     <row r="10" spans="1:25" ht="16.2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>357</v>
+        <v>992</v>
       </c>
       <c r="B10" t="s">
-        <v>345</v>
+        <v>982</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
@@ -2202,7 +4107,7 @@
         <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>346</v>
+        <v>983</v>
       </c>
       <c r="F10" t="s">
         <v>25</v>
@@ -2217,7 +4122,7 @@
         <v>25</v>
       </c>
       <c r="J10" t="s">
-        <v>319</v>
+        <v>984</v>
       </c>
       <c r="K10" t="s">
         <v>25</v>
@@ -2226,10 +4131,10 @@
         <v>25</v>
       </c>
       <c r="M10" t="s">
-        <v>276</v>
+        <v>797</v>
       </c>
       <c r="N10" t="s">
-        <v>277</v>
+        <v>798</v>
       </c>
       <c r="O10" t="s">
         <v>25</v>
@@ -2241,13 +4146,13 @@
         <v>36</v>
       </c>
       <c r="R10" t="s">
-        <v>97</v>
+        <v>799</v>
       </c>
       <c r="S10" t="s">
-        <v>347</v>
+        <v>940</v>
       </c>
       <c r="T10" t="s">
-        <v>348</v>
+        <v>941</v>
       </c>
       <c r="U10" t="s">
         <v>26</v>
@@ -2259,7 +4164,7 @@
         <v>25</v>
       </c>
       <c r="X10" t="s">
-        <v>349</v>
+        <v>67</v>
       </c>
       <c r="Y10" t="s">
         <v>25</v>
@@ -2267,10 +4172,10 @@
     </row>
     <row r="11" spans="1:25" ht="16.2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>358</v>
+        <v>993</v>
       </c>
       <c r="B11" t="s">
-        <v>345</v>
+        <v>982</v>
       </c>
       <c r="C11" t="s">
         <v>25</v>
@@ -2279,7 +4184,7 @@
         <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>346</v>
+        <v>983</v>
       </c>
       <c r="F11" t="s">
         <v>25</v>
@@ -2294,7 +4199,7 @@
         <v>25</v>
       </c>
       <c r="J11" t="s">
-        <v>319</v>
+        <v>984</v>
       </c>
       <c r="K11" t="s">
         <v>25</v>
@@ -2303,10 +4208,10 @@
         <v>25</v>
       </c>
       <c r="M11" t="s">
-        <v>276</v>
+        <v>797</v>
       </c>
       <c r="N11" t="s">
-        <v>277</v>
+        <v>798</v>
       </c>
       <c r="O11" t="s">
         <v>25</v>
@@ -2318,13 +4223,13 @@
         <v>37</v>
       </c>
       <c r="R11" t="s">
-        <v>97</v>
+        <v>799</v>
       </c>
       <c r="S11" t="s">
-        <v>347</v>
+        <v>940</v>
       </c>
       <c r="T11" t="s">
-        <v>348</v>
+        <v>941</v>
       </c>
       <c r="U11" t="s">
         <v>26</v>
@@ -2336,7 +4241,7 @@
         <v>25</v>
       </c>
       <c r="X11" t="s">
-        <v>349</v>
+        <v>67</v>
       </c>
       <c r="Y11" t="s">
         <v>25</v>
@@ -2344,10 +4249,10 @@
     </row>
     <row r="12" spans="1:25" ht="16.2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>359</v>
+        <v>994</v>
       </c>
       <c r="B12" t="s">
-        <v>345</v>
+        <v>982</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
@@ -2356,7 +4261,7 @@
         <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>346</v>
+        <v>983</v>
       </c>
       <c r="F12" t="s">
         <v>25</v>
@@ -2371,7 +4276,7 @@
         <v>25</v>
       </c>
       <c r="J12" t="s">
-        <v>319</v>
+        <v>984</v>
       </c>
       <c r="K12" t="s">
         <v>25</v>
@@ -2380,10 +4285,10 @@
         <v>25</v>
       </c>
       <c r="M12" t="s">
-        <v>276</v>
+        <v>797</v>
       </c>
       <c r="N12" t="s">
-        <v>277</v>
+        <v>798</v>
       </c>
       <c r="O12" t="s">
         <v>25</v>
@@ -2395,13 +4300,13 @@
         <v>38</v>
       </c>
       <c r="R12" t="s">
-        <v>97</v>
+        <v>799</v>
       </c>
       <c r="S12" t="s">
-        <v>347</v>
+        <v>940</v>
       </c>
       <c r="T12" t="s">
-        <v>348</v>
+        <v>941</v>
       </c>
       <c r="U12" t="s">
         <v>26</v>
@@ -2413,7 +4318,7 @@
         <v>25</v>
       </c>
       <c r="X12" t="s">
-        <v>349</v>
+        <v>67</v>
       </c>
       <c r="Y12" t="s">
         <v>25</v>
@@ -2421,10 +4326,10 @@
     </row>
     <row r="13" spans="1:25" ht="16.2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>360</v>
+        <v>995</v>
       </c>
       <c r="B13" t="s">
-        <v>345</v>
+        <v>982</v>
       </c>
       <c r="C13" t="s">
         <v>25</v>
@@ -2433,7 +4338,7 @@
         <v>25</v>
       </c>
       <c r="E13" t="s">
-        <v>346</v>
+        <v>983</v>
       </c>
       <c r="F13" t="s">
         <v>25</v>
@@ -2448,7 +4353,7 @@
         <v>25</v>
       </c>
       <c r="J13" t="s">
-        <v>319</v>
+        <v>984</v>
       </c>
       <c r="K13" t="s">
         <v>25</v>
@@ -2457,10 +4362,10 @@
         <v>25</v>
       </c>
       <c r="M13" t="s">
-        <v>276</v>
+        <v>797</v>
       </c>
       <c r="N13" t="s">
-        <v>277</v>
+        <v>798</v>
       </c>
       <c r="O13" t="s">
         <v>25</v>
@@ -2472,13 +4377,13 @@
         <v>39</v>
       </c>
       <c r="R13" t="s">
-        <v>97</v>
+        <v>799</v>
       </c>
       <c r="S13" t="s">
-        <v>347</v>
+        <v>940</v>
       </c>
       <c r="T13" t="s">
-        <v>348</v>
+        <v>941</v>
       </c>
       <c r="U13" t="s">
         <v>26</v>
@@ -2490,7 +4395,7 @@
         <v>25</v>
       </c>
       <c r="X13" t="s">
-        <v>349</v>
+        <v>67</v>
       </c>
       <c r="Y13" t="s">
         <v>25</v>

--- a/Excel/SampleMetadata_Mobile.xlsx
+++ b/Excel/SampleMetadata_Mobile.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10141" uniqueCount="996">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14353" uniqueCount="1154">
   <si>
     <t>Result ID</t>
   </si>
@@ -3022,6 +3022,480 @@
   </si>
   <si>
     <t>A1485512</t>
+  </si>
+  <si>
+    <t>08/15/2022</t>
+  </si>
+  <si>
+    <t>20220815-Cocci-11729</t>
+  </si>
+  <si>
+    <t>A02743</t>
+  </si>
+  <si>
+    <t>TestComplexSite_20220815</t>
+  </si>
+  <si>
+    <t>TestFarm1_20220815</t>
+  </si>
+  <si>
+    <t>5:17 AM</t>
+  </si>
+  <si>
+    <t>TestHouse1_20220815</t>
+  </si>
+  <si>
+    <t>CartridgeCocci1729</t>
+  </si>
+  <si>
+    <t>08/07/2022</t>
+  </si>
+  <si>
+    <t>20220815-Cocci-21729</t>
+  </si>
+  <si>
+    <t>08/20/2022</t>
+  </si>
+  <si>
+    <t>20220815-Cocci-31729</t>
+  </si>
+  <si>
+    <t>08/29/2022</t>
+  </si>
+  <si>
+    <t>20220815-Cocci-41729</t>
+  </si>
+  <si>
+    <t>A02744</t>
+  </si>
+  <si>
+    <t>TestHouse2_20220815</t>
+  </si>
+  <si>
+    <t>20220815-Cocci-51729</t>
+  </si>
+  <si>
+    <t>20220815-Cocci-61729</t>
+  </si>
+  <si>
+    <t>TestHouse3_20220815</t>
+  </si>
+  <si>
+    <t>08/28/2022</t>
+  </si>
+  <si>
+    <t>20220815-Cocci-71729</t>
+  </si>
+  <si>
+    <t>A02745</t>
+  </si>
+  <si>
+    <t>09/05/2022</t>
+  </si>
+  <si>
+    <t>20220815-Cocci-81729</t>
+  </si>
+  <si>
+    <t>09/25/2022</t>
+  </si>
+  <si>
+    <t>20220815-Cocci-91729</t>
+  </si>
+  <si>
+    <t>A02746</t>
+  </si>
+  <si>
+    <t>TestHouse4_20220815</t>
+  </si>
+  <si>
+    <t>20220815-Cocci-101729</t>
+  </si>
+  <si>
+    <t>A02747</t>
+  </si>
+  <si>
+    <t>TestHouse5_20220815</t>
+  </si>
+  <si>
+    <t>CartridgeCocci4244</t>
+  </si>
+  <si>
+    <t>CartridgeCocci4442</t>
+  </si>
+  <si>
+    <t>CartridgeCocci5053</t>
+  </si>
+  <si>
+    <t>A1498501</t>
+  </si>
+  <si>
+    <t>Quantitation</t>
+  </si>
+  <si>
+    <t>CartridgeCocci5701</t>
+  </si>
+  <si>
+    <t>A1498502</t>
+  </si>
+  <si>
+    <t>A1498503</t>
+  </si>
+  <si>
+    <t>A1498504</t>
+  </si>
+  <si>
+    <t>A1498505</t>
+  </si>
+  <si>
+    <t>A1498506</t>
+  </si>
+  <si>
+    <t>A1498507</t>
+  </si>
+  <si>
+    <t>A1498508</t>
+  </si>
+  <si>
+    <t>A1498509</t>
+  </si>
+  <si>
+    <t>A1498510</t>
+  </si>
+  <si>
+    <t>A1498511</t>
+  </si>
+  <si>
+    <t>A1498512</t>
+  </si>
+  <si>
+    <t>CartridgeCocci5954</t>
+  </si>
+  <si>
+    <t>A1498601</t>
+  </si>
+  <si>
+    <t>A1498602</t>
+  </si>
+  <si>
+    <t>A1498603</t>
+  </si>
+  <si>
+    <t>A1498604</t>
+  </si>
+  <si>
+    <t>A1498605</t>
+  </si>
+  <si>
+    <t>A1498606</t>
+  </si>
+  <si>
+    <t>A1498607</t>
+  </si>
+  <si>
+    <t>A1498608</t>
+  </si>
+  <si>
+    <t>A1498609</t>
+  </si>
+  <si>
+    <t>A1498610</t>
+  </si>
+  <si>
+    <t>A1498611</t>
+  </si>
+  <si>
+    <t>A1498612</t>
+  </si>
+  <si>
+    <t>CartridgeCocci0248</t>
+  </si>
+  <si>
+    <t>A1498701</t>
+  </si>
+  <si>
+    <t>A1498702</t>
+  </si>
+  <si>
+    <t>A1498703</t>
+  </si>
+  <si>
+    <t>A1498704</t>
+  </si>
+  <si>
+    <t>A1498705</t>
+  </si>
+  <si>
+    <t>A1498706</t>
+  </si>
+  <si>
+    <t>A1498707</t>
+  </si>
+  <si>
+    <t>A1498708</t>
+  </si>
+  <si>
+    <t>A1498709</t>
+  </si>
+  <si>
+    <t>A1498710</t>
+  </si>
+  <si>
+    <t>A1498711</t>
+  </si>
+  <si>
+    <t>A1498712</t>
+  </si>
+  <si>
+    <t>A1498801</t>
+  </si>
+  <si>
+    <t>A1498802</t>
+  </si>
+  <si>
+    <t>A1498803</t>
+  </si>
+  <si>
+    <t>A1498804</t>
+  </si>
+  <si>
+    <t>A1498805</t>
+  </si>
+  <si>
+    <t>A1498806</t>
+  </si>
+  <si>
+    <t>A1498807</t>
+  </si>
+  <si>
+    <t>A1498808</t>
+  </si>
+  <si>
+    <t>A1498809</t>
+  </si>
+  <si>
+    <t>A1498810</t>
+  </si>
+  <si>
+    <t>A1498811</t>
+  </si>
+  <si>
+    <t>A1498812</t>
+  </si>
+  <si>
+    <t>A1498901</t>
+  </si>
+  <si>
+    <t>A1498902</t>
+  </si>
+  <si>
+    <t>A1498903</t>
+  </si>
+  <si>
+    <t>A1498904</t>
+  </si>
+  <si>
+    <t>A1498905</t>
+  </si>
+  <si>
+    <t>A1498906</t>
+  </si>
+  <si>
+    <t>A1498907</t>
+  </si>
+  <si>
+    <t>A1498908</t>
+  </si>
+  <si>
+    <t>A1498909</t>
+  </si>
+  <si>
+    <t>A1498910</t>
+  </si>
+  <si>
+    <t>A1498911</t>
+  </si>
+  <si>
+    <t>A1498912</t>
+  </si>
+  <si>
+    <t>A1499001</t>
+  </si>
+  <si>
+    <t>A1499002</t>
+  </si>
+  <si>
+    <t>A1499003</t>
+  </si>
+  <si>
+    <t>A1499004</t>
+  </si>
+  <si>
+    <t>A1499005</t>
+  </si>
+  <si>
+    <t>A1499006</t>
+  </si>
+  <si>
+    <t>A1499007</t>
+  </si>
+  <si>
+    <t>A1499008</t>
+  </si>
+  <si>
+    <t>A1499009</t>
+  </si>
+  <si>
+    <t>A1499010</t>
+  </si>
+  <si>
+    <t>A1499011</t>
+  </si>
+  <si>
+    <t>A1499012</t>
+  </si>
+  <si>
+    <t>A1499101</t>
+  </si>
+  <si>
+    <t>A1499102</t>
+  </si>
+  <si>
+    <t>A1499103</t>
+  </si>
+  <si>
+    <t>A1499104</t>
+  </si>
+  <si>
+    <t>A1499105</t>
+  </si>
+  <si>
+    <t>A1499106</t>
+  </si>
+  <si>
+    <t>A1499107</t>
+  </si>
+  <si>
+    <t>A1499108</t>
+  </si>
+  <si>
+    <t>A1499109</t>
+  </si>
+  <si>
+    <t>A1499110</t>
+  </si>
+  <si>
+    <t>A1499111</t>
+  </si>
+  <si>
+    <t>A1499112</t>
+  </si>
+  <si>
+    <t>A1499201</t>
+  </si>
+  <si>
+    <t>A1499202</t>
+  </si>
+  <si>
+    <t>A1499203</t>
+  </si>
+  <si>
+    <t>A1499204</t>
+  </si>
+  <si>
+    <t>A1499205</t>
+  </si>
+  <si>
+    <t>A1499206</t>
+  </si>
+  <si>
+    <t>A1499207</t>
+  </si>
+  <si>
+    <t>A1499208</t>
+  </si>
+  <si>
+    <t>A1499209</t>
+  </si>
+  <si>
+    <t>A1499210</t>
+  </si>
+  <si>
+    <t>A1499211</t>
+  </si>
+  <si>
+    <t>A1499212</t>
+  </si>
+  <si>
+    <t>A1499301</t>
+  </si>
+  <si>
+    <t>A1499302</t>
+  </si>
+  <si>
+    <t>A1499303</t>
+  </si>
+  <si>
+    <t>A1499304</t>
+  </si>
+  <si>
+    <t>A1499305</t>
+  </si>
+  <si>
+    <t>A1499306</t>
+  </si>
+  <si>
+    <t>A1499307</t>
+  </si>
+  <si>
+    <t>A1499308</t>
+  </si>
+  <si>
+    <t>A1499309</t>
+  </si>
+  <si>
+    <t>A1499310</t>
+  </si>
+  <si>
+    <t>A1499311</t>
+  </si>
+  <si>
+    <t>A1499312</t>
+  </si>
+  <si>
+    <t>A1499401</t>
+  </si>
+  <si>
+    <t>A1499402</t>
+  </si>
+  <si>
+    <t>A1499403</t>
+  </si>
+  <si>
+    <t>A1499404</t>
+  </si>
+  <si>
+    <t>A1499405</t>
+  </si>
+  <si>
+    <t>A1499406</t>
+  </si>
+  <si>
+    <t>A1499407</t>
+  </si>
+  <si>
+    <t>A1499408</t>
+  </si>
+  <si>
+    <t>A1499409</t>
+  </si>
+  <si>
+    <t>A1499410</t>
+  </si>
+  <si>
+    <t>A1499411</t>
+  </si>
+  <si>
+    <t>A1499412</t>
   </si>
 </sst>
 </file>
@@ -3479,10 +3953,10 @@
     </row>
     <row r="2" spans="1:25" ht="16.2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>981</v>
+        <v>1142</v>
       </c>
       <c r="B2" t="s">
-        <v>982</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
         <v>25</v>
@@ -3491,7 +3965,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>983</v>
+        <v>1024</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
@@ -3506,7 +3980,7 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>984</v>
+        <v>1022</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -3515,10 +3989,10 @@
         <v>25</v>
       </c>
       <c r="M2" t="s">
-        <v>797</v>
+        <v>999</v>
       </c>
       <c r="N2" t="s">
-        <v>798</v>
+        <v>1000</v>
       </c>
       <c r="O2" t="s">
         <v>25</v>
@@ -3530,13 +4004,13 @@
         <v>28</v>
       </c>
       <c r="R2" t="s">
-        <v>799</v>
+        <v>996</v>
       </c>
       <c r="S2" t="s">
-        <v>940</v>
+        <v>1001</v>
       </c>
       <c r="T2" t="s">
-        <v>941</v>
+        <v>1057</v>
       </c>
       <c r="U2" t="s">
         <v>26</v>
@@ -3548,7 +4022,7 @@
         <v>25</v>
       </c>
       <c r="X2" t="s">
-        <v>67</v>
+        <v>1020</v>
       </c>
       <c r="Y2" t="s">
         <v>25</v>
@@ -3556,10 +4030,10 @@
     </row>
     <row r="3" spans="1:25" ht="16.2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>985</v>
+        <v>1143</v>
       </c>
       <c r="B3" t="s">
-        <v>982</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
         <v>25</v>
@@ -3568,7 +4042,7 @@
         <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>983</v>
+        <v>1024</v>
       </c>
       <c r="F3" t="s">
         <v>25</v>
@@ -3583,7 +4057,7 @@
         <v>25</v>
       </c>
       <c r="J3" t="s">
-        <v>984</v>
+        <v>1022</v>
       </c>
       <c r="K3" t="s">
         <v>25</v>
@@ -3592,10 +4066,10 @@
         <v>25</v>
       </c>
       <c r="M3" t="s">
-        <v>797</v>
+        <v>999</v>
       </c>
       <c r="N3" t="s">
-        <v>798</v>
+        <v>1000</v>
       </c>
       <c r="O3" t="s">
         <v>25</v>
@@ -3607,13 +4081,13 @@
         <v>29</v>
       </c>
       <c r="R3" t="s">
-        <v>799</v>
+        <v>996</v>
       </c>
       <c r="S3" t="s">
-        <v>940</v>
+        <v>1001</v>
       </c>
       <c r="T3" t="s">
-        <v>941</v>
+        <v>1057</v>
       </c>
       <c r="U3" t="s">
         <v>26</v>
@@ -3625,7 +4099,7 @@
         <v>25</v>
       </c>
       <c r="X3" t="s">
-        <v>67</v>
+        <v>1020</v>
       </c>
       <c r="Y3" t="s">
         <v>25</v>
@@ -3633,10 +4107,10 @@
     </row>
     <row r="4" spans="1:25" ht="16.2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>986</v>
+        <v>1144</v>
       </c>
       <c r="B4" t="s">
-        <v>982</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
         <v>25</v>
@@ -3645,7 +4119,7 @@
         <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>983</v>
+        <v>1024</v>
       </c>
       <c r="F4" t="s">
         <v>25</v>
@@ -3660,7 +4134,7 @@
         <v>25</v>
       </c>
       <c r="J4" t="s">
-        <v>984</v>
+        <v>1022</v>
       </c>
       <c r="K4" t="s">
         <v>25</v>
@@ -3669,10 +4143,10 @@
         <v>25</v>
       </c>
       <c r="M4" t="s">
-        <v>797</v>
+        <v>999</v>
       </c>
       <c r="N4" t="s">
-        <v>798</v>
+        <v>1000</v>
       </c>
       <c r="O4" t="s">
         <v>25</v>
@@ -3684,13 +4158,13 @@
         <v>30</v>
       </c>
       <c r="R4" t="s">
-        <v>799</v>
+        <v>996</v>
       </c>
       <c r="S4" t="s">
-        <v>940</v>
+        <v>1001</v>
       </c>
       <c r="T4" t="s">
-        <v>941</v>
+        <v>1057</v>
       </c>
       <c r="U4" t="s">
         <v>26</v>
@@ -3702,7 +4176,7 @@
         <v>25</v>
       </c>
       <c r="X4" t="s">
-        <v>67</v>
+        <v>1020</v>
       </c>
       <c r="Y4" t="s">
         <v>25</v>
@@ -3710,10 +4184,10 @@
     </row>
     <row r="5" spans="1:25" ht="16.2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>987</v>
+        <v>1145</v>
       </c>
       <c r="B5" t="s">
-        <v>982</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
         <v>25</v>
@@ -3722,7 +4196,7 @@
         <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>983</v>
+        <v>1024</v>
       </c>
       <c r="F5" t="s">
         <v>25</v>
@@ -3737,7 +4211,7 @@
         <v>25</v>
       </c>
       <c r="J5" t="s">
-        <v>984</v>
+        <v>1022</v>
       </c>
       <c r="K5" t="s">
         <v>25</v>
@@ -3746,10 +4220,10 @@
         <v>25</v>
       </c>
       <c r="M5" t="s">
-        <v>797</v>
+        <v>999</v>
       </c>
       <c r="N5" t="s">
-        <v>798</v>
+        <v>1000</v>
       </c>
       <c r="O5" t="s">
         <v>25</v>
@@ -3761,13 +4235,13 @@
         <v>31</v>
       </c>
       <c r="R5" t="s">
-        <v>799</v>
+        <v>996</v>
       </c>
       <c r="S5" t="s">
-        <v>940</v>
+        <v>1001</v>
       </c>
       <c r="T5" t="s">
-        <v>941</v>
+        <v>1057</v>
       </c>
       <c r="U5" t="s">
         <v>26</v>
@@ -3779,7 +4253,7 @@
         <v>25</v>
       </c>
       <c r="X5" t="s">
-        <v>67</v>
+        <v>1020</v>
       </c>
       <c r="Y5" t="s">
         <v>25</v>
@@ -3787,10 +4261,10 @@
     </row>
     <row r="6" spans="1:25" ht="16.2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>988</v>
+        <v>1146</v>
       </c>
       <c r="B6" t="s">
-        <v>982</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
@@ -3799,7 +4273,7 @@
         <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>983</v>
+        <v>1024</v>
       </c>
       <c r="F6" t="s">
         <v>25</v>
@@ -3814,7 +4288,7 @@
         <v>25</v>
       </c>
       <c r="J6" t="s">
-        <v>984</v>
+        <v>1022</v>
       </c>
       <c r="K6" t="s">
         <v>25</v>
@@ -3823,10 +4297,10 @@
         <v>25</v>
       </c>
       <c r="M6" t="s">
-        <v>797</v>
+        <v>999</v>
       </c>
       <c r="N6" t="s">
-        <v>798</v>
+        <v>1000</v>
       </c>
       <c r="O6" t="s">
         <v>25</v>
@@ -3838,13 +4312,13 @@
         <v>32</v>
       </c>
       <c r="R6" t="s">
-        <v>799</v>
+        <v>996</v>
       </c>
       <c r="S6" t="s">
-        <v>940</v>
+        <v>1001</v>
       </c>
       <c r="T6" t="s">
-        <v>941</v>
+        <v>1057</v>
       </c>
       <c r="U6" t="s">
         <v>26</v>
@@ -3856,7 +4330,7 @@
         <v>25</v>
       </c>
       <c r="X6" t="s">
-        <v>67</v>
+        <v>1020</v>
       </c>
       <c r="Y6" t="s">
         <v>25</v>
@@ -3864,10 +4338,10 @@
     </row>
     <row r="7" spans="1:25" ht="16.2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>989</v>
+        <v>1147</v>
       </c>
       <c r="B7" t="s">
-        <v>982</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
@@ -3876,7 +4350,7 @@
         <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>983</v>
+        <v>1024</v>
       </c>
       <c r="F7" t="s">
         <v>25</v>
@@ -3891,7 +4365,7 @@
         <v>25</v>
       </c>
       <c r="J7" t="s">
-        <v>984</v>
+        <v>1022</v>
       </c>
       <c r="K7" t="s">
         <v>25</v>
@@ -3900,10 +4374,10 @@
         <v>25</v>
       </c>
       <c r="M7" t="s">
-        <v>797</v>
+        <v>999</v>
       </c>
       <c r="N7" t="s">
-        <v>798</v>
+        <v>1000</v>
       </c>
       <c r="O7" t="s">
         <v>25</v>
@@ -3915,13 +4389,13 @@
         <v>33</v>
       </c>
       <c r="R7" t="s">
-        <v>799</v>
+        <v>996</v>
       </c>
       <c r="S7" t="s">
-        <v>940</v>
+        <v>1001</v>
       </c>
       <c r="T7" t="s">
-        <v>941</v>
+        <v>1057</v>
       </c>
       <c r="U7" t="s">
         <v>26</v>
@@ -3933,7 +4407,7 @@
         <v>25</v>
       </c>
       <c r="X7" t="s">
-        <v>67</v>
+        <v>1020</v>
       </c>
       <c r="Y7" t="s">
         <v>25</v>
@@ -3941,10 +4415,10 @@
     </row>
     <row r="8" spans="1:25" ht="16.2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>990</v>
+        <v>1148</v>
       </c>
       <c r="B8" t="s">
-        <v>982</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
         <v>25</v>
@@ -3953,7 +4427,7 @@
         <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>983</v>
+        <v>1024</v>
       </c>
       <c r="F8" t="s">
         <v>25</v>
@@ -3968,7 +4442,7 @@
         <v>25</v>
       </c>
       <c r="J8" t="s">
-        <v>984</v>
+        <v>1022</v>
       </c>
       <c r="K8" t="s">
         <v>25</v>
@@ -3977,10 +4451,10 @@
         <v>25</v>
       </c>
       <c r="M8" t="s">
-        <v>797</v>
+        <v>999</v>
       </c>
       <c r="N8" t="s">
-        <v>798</v>
+        <v>1000</v>
       </c>
       <c r="O8" t="s">
         <v>25</v>
@@ -3992,13 +4466,13 @@
         <v>34</v>
       </c>
       <c r="R8" t="s">
-        <v>799</v>
+        <v>996</v>
       </c>
       <c r="S8" t="s">
-        <v>940</v>
+        <v>1001</v>
       </c>
       <c r="T8" t="s">
-        <v>941</v>
+        <v>1057</v>
       </c>
       <c r="U8" t="s">
         <v>26</v>
@@ -4010,7 +4484,7 @@
         <v>25</v>
       </c>
       <c r="X8" t="s">
-        <v>67</v>
+        <v>1020</v>
       </c>
       <c r="Y8" t="s">
         <v>25</v>
@@ -4018,10 +4492,10 @@
     </row>
     <row r="9" spans="1:25" ht="16.2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>991</v>
+        <v>1149</v>
       </c>
       <c r="B9" t="s">
-        <v>982</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
         <v>25</v>
@@ -4030,7 +4504,7 @@
         <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>983</v>
+        <v>1024</v>
       </c>
       <c r="F9" t="s">
         <v>25</v>
@@ -4045,7 +4519,7 @@
         <v>25</v>
       </c>
       <c r="J9" t="s">
-        <v>984</v>
+        <v>1022</v>
       </c>
       <c r="K9" t="s">
         <v>25</v>
@@ -4054,10 +4528,10 @@
         <v>25</v>
       </c>
       <c r="M9" t="s">
-        <v>797</v>
+        <v>999</v>
       </c>
       <c r="N9" t="s">
-        <v>798</v>
+        <v>1000</v>
       </c>
       <c r="O9" t="s">
         <v>25</v>
@@ -4069,13 +4543,13 @@
         <v>35</v>
       </c>
       <c r="R9" t="s">
-        <v>799</v>
+        <v>996</v>
       </c>
       <c r="S9" t="s">
-        <v>940</v>
+        <v>1001</v>
       </c>
       <c r="T9" t="s">
-        <v>941</v>
+        <v>1057</v>
       </c>
       <c r="U9" t="s">
         <v>26</v>
@@ -4087,7 +4561,7 @@
         <v>25</v>
       </c>
       <c r="X9" t="s">
-        <v>67</v>
+        <v>1020</v>
       </c>
       <c r="Y9" t="s">
         <v>25</v>
@@ -4095,10 +4569,10 @@
     </row>
     <row r="10" spans="1:25" ht="16.2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>992</v>
+        <v>1150</v>
       </c>
       <c r="B10" t="s">
-        <v>982</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
@@ -4107,7 +4581,7 @@
         <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>983</v>
+        <v>1024</v>
       </c>
       <c r="F10" t="s">
         <v>25</v>
@@ -4122,7 +4596,7 @@
         <v>25</v>
       </c>
       <c r="J10" t="s">
-        <v>984</v>
+        <v>1022</v>
       </c>
       <c r="K10" t="s">
         <v>25</v>
@@ -4131,10 +4605,10 @@
         <v>25</v>
       </c>
       <c r="M10" t="s">
-        <v>797</v>
+        <v>999</v>
       </c>
       <c r="N10" t="s">
-        <v>798</v>
+        <v>1000</v>
       </c>
       <c r="O10" t="s">
         <v>25</v>
@@ -4146,13 +4620,13 @@
         <v>36</v>
       </c>
       <c r="R10" t="s">
-        <v>799</v>
+        <v>996</v>
       </c>
       <c r="S10" t="s">
-        <v>940</v>
+        <v>1001</v>
       </c>
       <c r="T10" t="s">
-        <v>941</v>
+        <v>1057</v>
       </c>
       <c r="U10" t="s">
         <v>26</v>
@@ -4164,7 +4638,7 @@
         <v>25</v>
       </c>
       <c r="X10" t="s">
-        <v>67</v>
+        <v>1020</v>
       </c>
       <c r="Y10" t="s">
         <v>25</v>
@@ -4172,10 +4646,10 @@
     </row>
     <row r="11" spans="1:25" ht="16.2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>993</v>
+        <v>1151</v>
       </c>
       <c r="B11" t="s">
-        <v>982</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
         <v>25</v>
@@ -4184,7 +4658,7 @@
         <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>983</v>
+        <v>1024</v>
       </c>
       <c r="F11" t="s">
         <v>25</v>
@@ -4199,7 +4673,7 @@
         <v>25</v>
       </c>
       <c r="J11" t="s">
-        <v>984</v>
+        <v>1022</v>
       </c>
       <c r="K11" t="s">
         <v>25</v>
@@ -4208,10 +4682,10 @@
         <v>25</v>
       </c>
       <c r="M11" t="s">
-        <v>797</v>
+        <v>999</v>
       </c>
       <c r="N11" t="s">
-        <v>798</v>
+        <v>1000</v>
       </c>
       <c r="O11" t="s">
         <v>25</v>
@@ -4223,13 +4697,13 @@
         <v>37</v>
       </c>
       <c r="R11" t="s">
-        <v>799</v>
+        <v>996</v>
       </c>
       <c r="S11" t="s">
-        <v>940</v>
+        <v>1001</v>
       </c>
       <c r="T11" t="s">
-        <v>941</v>
+        <v>1057</v>
       </c>
       <c r="U11" t="s">
         <v>26</v>
@@ -4241,7 +4715,7 @@
         <v>25</v>
       </c>
       <c r="X11" t="s">
-        <v>67</v>
+        <v>1020</v>
       </c>
       <c r="Y11" t="s">
         <v>25</v>
@@ -4249,10 +4723,10 @@
     </row>
     <row r="12" spans="1:25" ht="16.2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>994</v>
+        <v>1152</v>
       </c>
       <c r="B12" t="s">
-        <v>982</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
@@ -4261,7 +4735,7 @@
         <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>983</v>
+        <v>1024</v>
       </c>
       <c r="F12" t="s">
         <v>25</v>
@@ -4276,7 +4750,7 @@
         <v>25</v>
       </c>
       <c r="J12" t="s">
-        <v>984</v>
+        <v>1022</v>
       </c>
       <c r="K12" t="s">
         <v>25</v>
@@ -4285,10 +4759,10 @@
         <v>25</v>
       </c>
       <c r="M12" t="s">
-        <v>797</v>
+        <v>999</v>
       </c>
       <c r="N12" t="s">
-        <v>798</v>
+        <v>1000</v>
       </c>
       <c r="O12" t="s">
         <v>25</v>
@@ -4300,13 +4774,13 @@
         <v>38</v>
       </c>
       <c r="R12" t="s">
-        <v>799</v>
+        <v>996</v>
       </c>
       <c r="S12" t="s">
-        <v>940</v>
+        <v>1001</v>
       </c>
       <c r="T12" t="s">
-        <v>941</v>
+        <v>1057</v>
       </c>
       <c r="U12" t="s">
         <v>26</v>
@@ -4318,7 +4792,7 @@
         <v>25</v>
       </c>
       <c r="X12" t="s">
-        <v>67</v>
+        <v>1020</v>
       </c>
       <c r="Y12" t="s">
         <v>25</v>
@@ -4326,10 +4800,10 @@
     </row>
     <row r="13" spans="1:25" ht="16.2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>995</v>
+        <v>1153</v>
       </c>
       <c r="B13" t="s">
-        <v>982</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
         <v>25</v>
@@ -4338,7 +4812,7 @@
         <v>25</v>
       </c>
       <c r="E13" t="s">
-        <v>983</v>
+        <v>1024</v>
       </c>
       <c r="F13" t="s">
         <v>25</v>
@@ -4353,7 +4827,7 @@
         <v>25</v>
       </c>
       <c r="J13" t="s">
-        <v>984</v>
+        <v>1022</v>
       </c>
       <c r="K13" t="s">
         <v>25</v>
@@ -4362,10 +4836,10 @@
         <v>25</v>
       </c>
       <c r="M13" t="s">
-        <v>797</v>
+        <v>999</v>
       </c>
       <c r="N13" t="s">
-        <v>798</v>
+        <v>1000</v>
       </c>
       <c r="O13" t="s">
         <v>25</v>
@@ -4377,13 +4851,13 @@
         <v>39</v>
       </c>
       <c r="R13" t="s">
-        <v>799</v>
+        <v>996</v>
       </c>
       <c r="S13" t="s">
-        <v>940</v>
+        <v>1001</v>
       </c>
       <c r="T13" t="s">
-        <v>941</v>
+        <v>1057</v>
       </c>
       <c r="U13" t="s">
         <v>26</v>
@@ -4395,7 +4869,7 @@
         <v>25</v>
       </c>
       <c r="X13" t="s">
-        <v>67</v>
+        <v>1020</v>
       </c>
       <c r="Y13" t="s">
         <v>25</v>

--- a/Excel/SampleMetadata_Mobile.xlsx
+++ b/Excel/SampleMetadata_Mobile.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14353" uniqueCount="1154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18217" uniqueCount="1529">
   <si>
     <t>Result ID</t>
   </si>
@@ -3496,6 +3496,1131 @@
   </si>
   <si>
     <t>A1499412</t>
+  </si>
+  <si>
+    <t>Coccidia</t>
+  </si>
+  <si>
+    <t>1391006</t>
+  </si>
+  <si>
+    <t>20220817-Cocci-15843</t>
+  </si>
+  <si>
+    <t>A02749</t>
+  </si>
+  <si>
+    <t>TestComplexSite_20220817</t>
+  </si>
+  <si>
+    <t>TestFarm1_20220817</t>
+  </si>
+  <si>
+    <t>A1500501</t>
+  </si>
+  <si>
+    <t>08/17/2022</t>
+  </si>
+  <si>
+    <t>CartridgeCocci5843</t>
+  </si>
+  <si>
+    <t>A1500502</t>
+  </si>
+  <si>
+    <t>A1500503</t>
+  </si>
+  <si>
+    <t>A1500504</t>
+  </si>
+  <si>
+    <t>A1500505</t>
+  </si>
+  <si>
+    <t>A1500506</t>
+  </si>
+  <si>
+    <t>A1500507</t>
+  </si>
+  <si>
+    <t>A1500508</t>
+  </si>
+  <si>
+    <t>A1500509</t>
+  </si>
+  <si>
+    <t>A1500510</t>
+  </si>
+  <si>
+    <t>A1500511</t>
+  </si>
+  <si>
+    <t>A1500512</t>
+  </si>
+  <si>
+    <t>A1500601</t>
+  </si>
+  <si>
+    <t>20220817-Cocci-22243</t>
+  </si>
+  <si>
+    <t>6:22 AM</t>
+  </si>
+  <si>
+    <t>CartridgeCocci2243</t>
+  </si>
+  <si>
+    <t>A1500602</t>
+  </si>
+  <si>
+    <t>A1500603</t>
+  </si>
+  <si>
+    <t>A1500604</t>
+  </si>
+  <si>
+    <t>A1500605</t>
+  </si>
+  <si>
+    <t>A1500606</t>
+  </si>
+  <si>
+    <t>A1500607</t>
+  </si>
+  <si>
+    <t>A1500608</t>
+  </si>
+  <si>
+    <t>A1500609</t>
+  </si>
+  <si>
+    <t>A1500610</t>
+  </si>
+  <si>
+    <t>A1500611</t>
+  </si>
+  <si>
+    <t>A1500612</t>
+  </si>
+  <si>
+    <t>A1500801</t>
+  </si>
+  <si>
+    <t>20220817-Cocci-33536</t>
+  </si>
+  <si>
+    <t>6:35 AM</t>
+  </si>
+  <si>
+    <t>CartridgeCocci3536</t>
+  </si>
+  <si>
+    <t>A1500802</t>
+  </si>
+  <si>
+    <t>A1500803</t>
+  </si>
+  <si>
+    <t>A1500804</t>
+  </si>
+  <si>
+    <t>A1500805</t>
+  </si>
+  <si>
+    <t>A1500806</t>
+  </si>
+  <si>
+    <t>A1500807</t>
+  </si>
+  <si>
+    <t>A1500808</t>
+  </si>
+  <si>
+    <t>A1500809</t>
+  </si>
+  <si>
+    <t>A1500810</t>
+  </si>
+  <si>
+    <t>A1500811</t>
+  </si>
+  <si>
+    <t>A1500812</t>
+  </si>
+  <si>
+    <t>A1500901</t>
+  </si>
+  <si>
+    <t>1391007</t>
+  </si>
+  <si>
+    <t>20220817-Cocci-43536</t>
+  </si>
+  <si>
+    <t>A02750</t>
+  </si>
+  <si>
+    <t>A1500902</t>
+  </si>
+  <si>
+    <t>A1500903</t>
+  </si>
+  <si>
+    <t>A1500904</t>
+  </si>
+  <si>
+    <t>A1500905</t>
+  </si>
+  <si>
+    <t>A1500906</t>
+  </si>
+  <si>
+    <t>A1500907</t>
+  </si>
+  <si>
+    <t>A1500908</t>
+  </si>
+  <si>
+    <t>A1500909</t>
+  </si>
+  <si>
+    <t>A1500910</t>
+  </si>
+  <si>
+    <t>A1500911</t>
+  </si>
+  <si>
+    <t>A1500912</t>
+  </si>
+  <si>
+    <t>A1501201</t>
+  </si>
+  <si>
+    <t>1391008</t>
+  </si>
+  <si>
+    <t>20220817-Cocci-63536</t>
+  </si>
+  <si>
+    <t>A1501202</t>
+  </si>
+  <si>
+    <t>A1501203</t>
+  </si>
+  <si>
+    <t>A1501204</t>
+  </si>
+  <si>
+    <t>A1501205</t>
+  </si>
+  <si>
+    <t>A1501206</t>
+  </si>
+  <si>
+    <t>A1501207</t>
+  </si>
+  <si>
+    <t>A1501208</t>
+  </si>
+  <si>
+    <t>A1501209</t>
+  </si>
+  <si>
+    <t>A1501210</t>
+  </si>
+  <si>
+    <t>A1501211</t>
+  </si>
+  <si>
+    <t>A1501212</t>
+  </si>
+  <si>
+    <t>A1501301</t>
+  </si>
+  <si>
+    <t>20220817-Cocci-73536</t>
+  </si>
+  <si>
+    <t>A1501302</t>
+  </si>
+  <si>
+    <t>A1501303</t>
+  </si>
+  <si>
+    <t>A1501304</t>
+  </si>
+  <si>
+    <t>A1501305</t>
+  </si>
+  <si>
+    <t>A1501306</t>
+  </si>
+  <si>
+    <t>A1501307</t>
+  </si>
+  <si>
+    <t>A1501308</t>
+  </si>
+  <si>
+    <t>A1501309</t>
+  </si>
+  <si>
+    <t>A1501310</t>
+  </si>
+  <si>
+    <t>A1501311</t>
+  </si>
+  <si>
+    <t>A1501312</t>
+  </si>
+  <si>
+    <t>A1501601</t>
+  </si>
+  <si>
+    <t>20220817-Cocci-83536</t>
+  </si>
+  <si>
+    <t>A02751</t>
+  </si>
+  <si>
+    <t>A1501602</t>
+  </si>
+  <si>
+    <t>A1501603</t>
+  </si>
+  <si>
+    <t>A1501604</t>
+  </si>
+  <si>
+    <t>A1501605</t>
+  </si>
+  <si>
+    <t>A1501606</t>
+  </si>
+  <si>
+    <t>A1501607</t>
+  </si>
+  <si>
+    <t>A1501608</t>
+  </si>
+  <si>
+    <t>A1501609</t>
+  </si>
+  <si>
+    <t>A1501610</t>
+  </si>
+  <si>
+    <t>A1501611</t>
+  </si>
+  <si>
+    <t>A1501612</t>
+  </si>
+  <si>
+    <t>A1501701</t>
+  </si>
+  <si>
+    <t>20220817-Cocci-93536</t>
+  </si>
+  <si>
+    <t>A1501702</t>
+  </si>
+  <si>
+    <t>A1501703</t>
+  </si>
+  <si>
+    <t>A1501704</t>
+  </si>
+  <si>
+    <t>A1501705</t>
+  </si>
+  <si>
+    <t>A1501706</t>
+  </si>
+  <si>
+    <t>A1501707</t>
+  </si>
+  <si>
+    <t>A1501708</t>
+  </si>
+  <si>
+    <t>A1501709</t>
+  </si>
+  <si>
+    <t>A1501710</t>
+  </si>
+  <si>
+    <t>A1501711</t>
+  </si>
+  <si>
+    <t>A1501712</t>
+  </si>
+  <si>
+    <t>A1501801</t>
+  </si>
+  <si>
+    <t>1391009</t>
+  </si>
+  <si>
+    <t>20220817-Cocci-103536</t>
+  </si>
+  <si>
+    <t>A1501802</t>
+  </si>
+  <si>
+    <t>A1501803</t>
+  </si>
+  <si>
+    <t>A1501804</t>
+  </si>
+  <si>
+    <t>A1501805</t>
+  </si>
+  <si>
+    <t>A1501806</t>
+  </si>
+  <si>
+    <t>A1501807</t>
+  </si>
+  <si>
+    <t>A1501808</t>
+  </si>
+  <si>
+    <t>A1501809</t>
+  </si>
+  <si>
+    <t>A1501810</t>
+  </si>
+  <si>
+    <t>A1501811</t>
+  </si>
+  <si>
+    <t>A1501812</t>
+  </si>
+  <si>
+    <t>A1501901</t>
+  </si>
+  <si>
+    <t>1391010</t>
+  </si>
+  <si>
+    <t>20220817-Cocci-113536</t>
+  </si>
+  <si>
+    <t>A1501902</t>
+  </si>
+  <si>
+    <t>A1501903</t>
+  </si>
+  <si>
+    <t>A1501904</t>
+  </si>
+  <si>
+    <t>A1501905</t>
+  </si>
+  <si>
+    <t>A1501906</t>
+  </si>
+  <si>
+    <t>A1501907</t>
+  </si>
+  <si>
+    <t>A1501908</t>
+  </si>
+  <si>
+    <t>A1501909</t>
+  </si>
+  <si>
+    <t>A1501910</t>
+  </si>
+  <si>
+    <t>A1501911</t>
+  </si>
+  <si>
+    <t>A1501912</t>
+  </si>
+  <si>
+    <t>A1502201</t>
+  </si>
+  <si>
+    <t>20220817-Cocci-101317</t>
+  </si>
+  <si>
+    <t>A02752</t>
+  </si>
+  <si>
+    <t>9:13 AM</t>
+  </si>
+  <si>
+    <t>CartridgeCocci1317</t>
+  </si>
+  <si>
+    <t>A1502202</t>
+  </si>
+  <si>
+    <t>A1502203</t>
+  </si>
+  <si>
+    <t>A1502204</t>
+  </si>
+  <si>
+    <t>A1502205</t>
+  </si>
+  <si>
+    <t>A1502206</t>
+  </si>
+  <si>
+    <t>A1502207</t>
+  </si>
+  <si>
+    <t>A1502208</t>
+  </si>
+  <si>
+    <t>A1502209</t>
+  </si>
+  <si>
+    <t>A1502210</t>
+  </si>
+  <si>
+    <t>A1502211</t>
+  </si>
+  <si>
+    <t>A1502212</t>
+  </si>
+  <si>
+    <t>A1502301</t>
+  </si>
+  <si>
+    <t>20220817-Cocci-111317</t>
+  </si>
+  <si>
+    <t>A02753</t>
+  </si>
+  <si>
+    <t>A1502302</t>
+  </si>
+  <si>
+    <t>A1502303</t>
+  </si>
+  <si>
+    <t>A1502304</t>
+  </si>
+  <si>
+    <t>A1502305</t>
+  </si>
+  <si>
+    <t>A1502306</t>
+  </si>
+  <si>
+    <t>A1502307</t>
+  </si>
+  <si>
+    <t>A1502308</t>
+  </si>
+  <si>
+    <t>A1502309</t>
+  </si>
+  <si>
+    <t>A1502310</t>
+  </si>
+  <si>
+    <t>A1502311</t>
+  </si>
+  <si>
+    <t>A1502312</t>
+  </si>
+  <si>
+    <t>A1503601</t>
+  </si>
+  <si>
+    <t>1392006</t>
+  </si>
+  <si>
+    <t>20220819-Cocci-11415</t>
+  </si>
+  <si>
+    <t>TestComplexSite_20220819</t>
+  </si>
+  <si>
+    <t>TestFarm1_20220819</t>
+  </si>
+  <si>
+    <t>08/19/2022</t>
+  </si>
+  <si>
+    <t>7:14 AM</t>
+  </si>
+  <si>
+    <t>CartridgeCocci1415</t>
+  </si>
+  <si>
+    <t>A1503602</t>
+  </si>
+  <si>
+    <t>A1503603</t>
+  </si>
+  <si>
+    <t>A1503604</t>
+  </si>
+  <si>
+    <t>A1503605</t>
+  </si>
+  <si>
+    <t>A1503606</t>
+  </si>
+  <si>
+    <t>A1503607</t>
+  </si>
+  <si>
+    <t>A1503608</t>
+  </si>
+  <si>
+    <t>A1503609</t>
+  </si>
+  <si>
+    <t>A1503610</t>
+  </si>
+  <si>
+    <t>A1503611</t>
+  </si>
+  <si>
+    <t>A1503612</t>
+  </si>
+  <si>
+    <t>A1503701</t>
+  </si>
+  <si>
+    <t>20220819-Cocci-10625</t>
+  </si>
+  <si>
+    <t>A02755</t>
+  </si>
+  <si>
+    <t>8:06 AM</t>
+  </si>
+  <si>
+    <t>CartridgeCocci0625</t>
+  </si>
+  <si>
+    <t>A1503702</t>
+  </si>
+  <si>
+    <t>A1503703</t>
+  </si>
+  <si>
+    <t>A1503704</t>
+  </si>
+  <si>
+    <t>A1503705</t>
+  </si>
+  <si>
+    <t>A1503706</t>
+  </si>
+  <si>
+    <t>A1503707</t>
+  </si>
+  <si>
+    <t>A1503708</t>
+  </si>
+  <si>
+    <t>A1503709</t>
+  </si>
+  <si>
+    <t>A1503710</t>
+  </si>
+  <si>
+    <t>A1503711</t>
+  </si>
+  <si>
+    <t>A1503712</t>
+  </si>
+  <si>
+    <t>A1503801</t>
+  </si>
+  <si>
+    <t>20220819-Cocci-20625</t>
+  </si>
+  <si>
+    <t>A1503802</t>
+  </si>
+  <si>
+    <t>A1503803</t>
+  </si>
+  <si>
+    <t>A1503804</t>
+  </si>
+  <si>
+    <t>A1503805</t>
+  </si>
+  <si>
+    <t>A1503806</t>
+  </si>
+  <si>
+    <t>A1503807</t>
+  </si>
+  <si>
+    <t>A1503808</t>
+  </si>
+  <si>
+    <t>A1503809</t>
+  </si>
+  <si>
+    <t>A1503810</t>
+  </si>
+  <si>
+    <t>A1503811</t>
+  </si>
+  <si>
+    <t>A1503812</t>
+  </si>
+  <si>
+    <t>A1504001</t>
+  </si>
+  <si>
+    <t>20220819-Cocci-30625</t>
+  </si>
+  <si>
+    <t>A1504002</t>
+  </si>
+  <si>
+    <t>A1504003</t>
+  </si>
+  <si>
+    <t>A1504004</t>
+  </si>
+  <si>
+    <t>A1504005</t>
+  </si>
+  <si>
+    <t>A1504006</t>
+  </si>
+  <si>
+    <t>A1504007</t>
+  </si>
+  <si>
+    <t>A1504008</t>
+  </si>
+  <si>
+    <t>A1504009</t>
+  </si>
+  <si>
+    <t>A1504010</t>
+  </si>
+  <si>
+    <t>A1504011</t>
+  </si>
+  <si>
+    <t>A1504012</t>
+  </si>
+  <si>
+    <t>A1504201</t>
+  </si>
+  <si>
+    <t>1392007</t>
+  </si>
+  <si>
+    <t>20220819-Cocci-42425</t>
+  </si>
+  <si>
+    <t>A02756</t>
+  </si>
+  <si>
+    <t>8:24 AM</t>
+  </si>
+  <si>
+    <t>CartridgeCocci2425</t>
+  </si>
+  <si>
+    <t>A1504202</t>
+  </si>
+  <si>
+    <t>A1504203</t>
+  </si>
+  <si>
+    <t>A1504204</t>
+  </si>
+  <si>
+    <t>A1504205</t>
+  </si>
+  <si>
+    <t>A1504206</t>
+  </si>
+  <si>
+    <t>A1504207</t>
+  </si>
+  <si>
+    <t>A1504208</t>
+  </si>
+  <si>
+    <t>A1504209</t>
+  </si>
+  <si>
+    <t>A1504210</t>
+  </si>
+  <si>
+    <t>A1504211</t>
+  </si>
+  <si>
+    <t>A1504212</t>
+  </si>
+  <si>
+    <t>A1504301</t>
+  </si>
+  <si>
+    <t>20220819-Cocci-52425</t>
+  </si>
+  <si>
+    <t>A1504302</t>
+  </si>
+  <si>
+    <t>A1504303</t>
+  </si>
+  <si>
+    <t>A1504304</t>
+  </si>
+  <si>
+    <t>A1504305</t>
+  </si>
+  <si>
+    <t>A1504306</t>
+  </si>
+  <si>
+    <t>A1504307</t>
+  </si>
+  <si>
+    <t>A1504308</t>
+  </si>
+  <si>
+    <t>A1504309</t>
+  </si>
+  <si>
+    <t>A1504310</t>
+  </si>
+  <si>
+    <t>A1504311</t>
+  </si>
+  <si>
+    <t>A1504312</t>
+  </si>
+  <si>
+    <t>A1504401</t>
+  </si>
+  <si>
+    <t>1392008</t>
+  </si>
+  <si>
+    <t>20220819-Cocci-62425</t>
+  </si>
+  <si>
+    <t>09/10/2022</t>
+  </si>
+  <si>
+    <t>A1504402</t>
+  </si>
+  <si>
+    <t>A1504403</t>
+  </si>
+  <si>
+    <t>A1504404</t>
+  </si>
+  <si>
+    <t>A1504405</t>
+  </si>
+  <si>
+    <t>A1504406</t>
+  </si>
+  <si>
+    <t>A1504407</t>
+  </si>
+  <si>
+    <t>A1504408</t>
+  </si>
+  <si>
+    <t>A1504409</t>
+  </si>
+  <si>
+    <t>A1504410</t>
+  </si>
+  <si>
+    <t>A1504411</t>
+  </si>
+  <si>
+    <t>A1504412</t>
+  </si>
+  <si>
+    <t>A1504501</t>
+  </si>
+  <si>
+    <t>20220819-Cocci-72425</t>
+  </si>
+  <si>
+    <t>A1504502</t>
+  </si>
+  <si>
+    <t>A1504503</t>
+  </si>
+  <si>
+    <t>A1504504</t>
+  </si>
+  <si>
+    <t>A1504505</t>
+  </si>
+  <si>
+    <t>A1504506</t>
+  </si>
+  <si>
+    <t>A1504507</t>
+  </si>
+  <si>
+    <t>A1504508</t>
+  </si>
+  <si>
+    <t>A1504509</t>
+  </si>
+  <si>
+    <t>A1504510</t>
+  </si>
+  <si>
+    <t>A1504511</t>
+  </si>
+  <si>
+    <t>A1504512</t>
+  </si>
+  <si>
+    <t>A1504701</t>
+  </si>
+  <si>
+    <t>20220819-Cocci-84843</t>
+  </si>
+  <si>
+    <t>A02757</t>
+  </si>
+  <si>
+    <t>8:48 AM</t>
+  </si>
+  <si>
+    <t>CartridgeCocci4843</t>
+  </si>
+  <si>
+    <t>A1504702</t>
+  </si>
+  <si>
+    <t>A1504703</t>
+  </si>
+  <si>
+    <t>A1504704</t>
+  </si>
+  <si>
+    <t>A1504705</t>
+  </si>
+  <si>
+    <t>A1504706</t>
+  </si>
+  <si>
+    <t>A1504707</t>
+  </si>
+  <si>
+    <t>A1504708</t>
+  </si>
+  <si>
+    <t>A1504709</t>
+  </si>
+  <si>
+    <t>A1504710</t>
+  </si>
+  <si>
+    <t>A1504711</t>
+  </si>
+  <si>
+    <t>A1504712</t>
+  </si>
+  <si>
+    <t>A1505101</t>
+  </si>
+  <si>
+    <t>20220819-Cocci-94843</t>
+  </si>
+  <si>
+    <t>A1505102</t>
+  </si>
+  <si>
+    <t>A1505103</t>
+  </si>
+  <si>
+    <t>A1505104</t>
+  </si>
+  <si>
+    <t>A1505105</t>
+  </si>
+  <si>
+    <t>A1505106</t>
+  </si>
+  <si>
+    <t>A1505107</t>
+  </si>
+  <si>
+    <t>A1505108</t>
+  </si>
+  <si>
+    <t>A1505109</t>
+  </si>
+  <si>
+    <t>A1505110</t>
+  </si>
+  <si>
+    <t>A1505111</t>
+  </si>
+  <si>
+    <t>A1505112</t>
+  </si>
+  <si>
+    <t>A1505401</t>
+  </si>
+  <si>
+    <t>1392009</t>
+  </si>
+  <si>
+    <t>20220819-Cocci-101323</t>
+  </si>
+  <si>
+    <t>A02758</t>
+  </si>
+  <si>
+    <t>CartridgeCocci1323</t>
+  </si>
+  <si>
+    <t>A1505402</t>
+  </si>
+  <si>
+    <t>A1505403</t>
+  </si>
+  <si>
+    <t>A1505404</t>
+  </si>
+  <si>
+    <t>A1505405</t>
+  </si>
+  <si>
+    <t>A1505406</t>
+  </si>
+  <si>
+    <t>A1505407</t>
+  </si>
+  <si>
+    <t>A1505408</t>
+  </si>
+  <si>
+    <t>A1505409</t>
+  </si>
+  <si>
+    <t>A1505410</t>
+  </si>
+  <si>
+    <t>A1505411</t>
+  </si>
+  <si>
+    <t>A1505412</t>
+  </si>
+  <si>
+    <t>A1505901</t>
+  </si>
+  <si>
+    <t>1392010</t>
+  </si>
+  <si>
+    <t>20220819-Cocci-113540</t>
+  </si>
+  <si>
+    <t>A02759</t>
+  </si>
+  <si>
+    <t>9:35 AM</t>
+  </si>
+  <si>
+    <t>CartridgeCocci3540</t>
+  </si>
+  <si>
+    <t>A1505902</t>
+  </si>
+  <si>
+    <t>A1505903</t>
+  </si>
+  <si>
+    <t>A1505904</t>
+  </si>
+  <si>
+    <t>A1505905</t>
+  </si>
+  <si>
+    <t>A1505906</t>
+  </si>
+  <si>
+    <t>A1505907</t>
+  </si>
+  <si>
+    <t>A1505908</t>
+  </si>
+  <si>
+    <t>A1505909</t>
+  </si>
+  <si>
+    <t>A1505910</t>
+  </si>
+  <si>
+    <t>A1505911</t>
+  </si>
+  <si>
+    <t>A1505912</t>
+  </si>
+  <si>
+    <t>A1506801</t>
+  </si>
+  <si>
+    <t>20220822-Cocci-115303</t>
+  </si>
+  <si>
+    <t>A02761</t>
+  </si>
+  <si>
+    <t>08/22/2022</t>
+  </si>
+  <si>
+    <t>8:53 AM</t>
+  </si>
+  <si>
+    <t>CartridgeCocci5303</t>
+  </si>
+  <si>
+    <t>A1506802</t>
+  </si>
+  <si>
+    <t>A1506803</t>
+  </si>
+  <si>
+    <t>A1506804</t>
+  </si>
+  <si>
+    <t>A1506805</t>
+  </si>
+  <si>
+    <t>A1506806</t>
+  </si>
+  <si>
+    <t>A1506807</t>
+  </si>
+  <si>
+    <t>A1506808</t>
+  </si>
+  <si>
+    <t>A1506809</t>
+  </si>
+  <si>
+    <t>A1506810</t>
+  </si>
+  <si>
+    <t>A1506811</t>
+  </si>
+  <si>
+    <t>A1506812</t>
   </si>
 </sst>
 </file>
@@ -3953,10 +5078,10 @@
     </row>
     <row r="2" spans="1:25" ht="16.2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>1142</v>
+        <v>1512</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>1496</v>
       </c>
       <c r="C2" t="s">
         <v>25</v>
@@ -3965,7 +5090,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>1024</v>
+        <v>1513</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
@@ -3980,7 +5105,7 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>1022</v>
+        <v>1514</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -3989,10 +5114,10 @@
         <v>25</v>
       </c>
       <c r="M2" t="s">
-        <v>999</v>
+        <v>1334</v>
       </c>
       <c r="N2" t="s">
-        <v>1000</v>
+        <v>1335</v>
       </c>
       <c r="O2" t="s">
         <v>25</v>
@@ -4004,13 +5129,13 @@
         <v>28</v>
       </c>
       <c r="R2" t="s">
-        <v>996</v>
+        <v>1515</v>
       </c>
       <c r="S2" t="s">
-        <v>1001</v>
+        <v>1516</v>
       </c>
       <c r="T2" t="s">
-        <v>1057</v>
+        <v>1517</v>
       </c>
       <c r="U2" t="s">
         <v>26</v>
@@ -4022,7 +5147,7 @@
         <v>25</v>
       </c>
       <c r="X2" t="s">
-        <v>1020</v>
+        <v>1006</v>
       </c>
       <c r="Y2" t="s">
         <v>25</v>
@@ -4030,10 +5155,10 @@
     </row>
     <row r="3" spans="1:25" ht="16.2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>1143</v>
+        <v>1518</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>1496</v>
       </c>
       <c r="C3" t="s">
         <v>25</v>
@@ -4042,7 +5167,7 @@
         <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>1024</v>
+        <v>1513</v>
       </c>
       <c r="F3" t="s">
         <v>25</v>
@@ -4057,7 +5182,7 @@
         <v>25</v>
       </c>
       <c r="J3" t="s">
-        <v>1022</v>
+        <v>1514</v>
       </c>
       <c r="K3" t="s">
         <v>25</v>
@@ -4066,10 +5191,10 @@
         <v>25</v>
       </c>
       <c r="M3" t="s">
-        <v>999</v>
+        <v>1334</v>
       </c>
       <c r="N3" t="s">
-        <v>1000</v>
+        <v>1335</v>
       </c>
       <c r="O3" t="s">
         <v>25</v>
@@ -4081,13 +5206,13 @@
         <v>29</v>
       </c>
       <c r="R3" t="s">
-        <v>996</v>
+        <v>1515</v>
       </c>
       <c r="S3" t="s">
-        <v>1001</v>
+        <v>1516</v>
       </c>
       <c r="T3" t="s">
-        <v>1057</v>
+        <v>1517</v>
       </c>
       <c r="U3" t="s">
         <v>26</v>
@@ -4099,7 +5224,7 @@
         <v>25</v>
       </c>
       <c r="X3" t="s">
-        <v>1020</v>
+        <v>1006</v>
       </c>
       <c r="Y3" t="s">
         <v>25</v>
@@ -4107,10 +5232,10 @@
     </row>
     <row r="4" spans="1:25" ht="16.2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>1144</v>
+        <v>1519</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>1496</v>
       </c>
       <c r="C4" t="s">
         <v>25</v>
@@ -4119,7 +5244,7 @@
         <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>1024</v>
+        <v>1513</v>
       </c>
       <c r="F4" t="s">
         <v>25</v>
@@ -4134,7 +5259,7 @@
         <v>25</v>
       </c>
       <c r="J4" t="s">
-        <v>1022</v>
+        <v>1514</v>
       </c>
       <c r="K4" t="s">
         <v>25</v>
@@ -4143,10 +5268,10 @@
         <v>25</v>
       </c>
       <c r="M4" t="s">
-        <v>999</v>
+        <v>1334</v>
       </c>
       <c r="N4" t="s">
-        <v>1000</v>
+        <v>1335</v>
       </c>
       <c r="O4" t="s">
         <v>25</v>
@@ -4158,13 +5283,13 @@
         <v>30</v>
       </c>
       <c r="R4" t="s">
-        <v>996</v>
+        <v>1515</v>
       </c>
       <c r="S4" t="s">
-        <v>1001</v>
+        <v>1516</v>
       </c>
       <c r="T4" t="s">
-        <v>1057</v>
+        <v>1517</v>
       </c>
       <c r="U4" t="s">
         <v>26</v>
@@ -4176,7 +5301,7 @@
         <v>25</v>
       </c>
       <c r="X4" t="s">
-        <v>1020</v>
+        <v>1006</v>
       </c>
       <c r="Y4" t="s">
         <v>25</v>
@@ -4184,10 +5309,10 @@
     </row>
     <row r="5" spans="1:25" ht="16.2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>1145</v>
+        <v>1520</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>1496</v>
       </c>
       <c r="C5" t="s">
         <v>25</v>
@@ -4196,7 +5321,7 @@
         <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>1024</v>
+        <v>1513</v>
       </c>
       <c r="F5" t="s">
         <v>25</v>
@@ -4211,7 +5336,7 @@
         <v>25</v>
       </c>
       <c r="J5" t="s">
-        <v>1022</v>
+        <v>1514</v>
       </c>
       <c r="K5" t="s">
         <v>25</v>
@@ -4220,10 +5345,10 @@
         <v>25</v>
       </c>
       <c r="M5" t="s">
-        <v>999</v>
+        <v>1334</v>
       </c>
       <c r="N5" t="s">
-        <v>1000</v>
+        <v>1335</v>
       </c>
       <c r="O5" t="s">
         <v>25</v>
@@ -4235,13 +5360,13 @@
         <v>31</v>
       </c>
       <c r="R5" t="s">
-        <v>996</v>
+        <v>1515</v>
       </c>
       <c r="S5" t="s">
-        <v>1001</v>
+        <v>1516</v>
       </c>
       <c r="T5" t="s">
-        <v>1057</v>
+        <v>1517</v>
       </c>
       <c r="U5" t="s">
         <v>26</v>
@@ -4253,7 +5378,7 @@
         <v>25</v>
       </c>
       <c r="X5" t="s">
-        <v>1020</v>
+        <v>1006</v>
       </c>
       <c r="Y5" t="s">
         <v>25</v>
@@ -4261,10 +5386,10 @@
     </row>
     <row r="6" spans="1:25" ht="16.2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>1146</v>
+        <v>1521</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>1496</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
@@ -4273,7 +5398,7 @@
         <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>1024</v>
+        <v>1513</v>
       </c>
       <c r="F6" t="s">
         <v>25</v>
@@ -4288,7 +5413,7 @@
         <v>25</v>
       </c>
       <c r="J6" t="s">
-        <v>1022</v>
+        <v>1514</v>
       </c>
       <c r="K6" t="s">
         <v>25</v>
@@ -4297,10 +5422,10 @@
         <v>25</v>
       </c>
       <c r="M6" t="s">
-        <v>999</v>
+        <v>1334</v>
       </c>
       <c r="N6" t="s">
-        <v>1000</v>
+        <v>1335</v>
       </c>
       <c r="O6" t="s">
         <v>25</v>
@@ -4312,13 +5437,13 @@
         <v>32</v>
       </c>
       <c r="R6" t="s">
-        <v>996</v>
+        <v>1515</v>
       </c>
       <c r="S6" t="s">
-        <v>1001</v>
+        <v>1516</v>
       </c>
       <c r="T6" t="s">
-        <v>1057</v>
+        <v>1517</v>
       </c>
       <c r="U6" t="s">
         <v>26</v>
@@ -4330,7 +5455,7 @@
         <v>25</v>
       </c>
       <c r="X6" t="s">
-        <v>1020</v>
+        <v>1006</v>
       </c>
       <c r="Y6" t="s">
         <v>25</v>
@@ -4338,10 +5463,10 @@
     </row>
     <row r="7" spans="1:25" ht="16.2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>1147</v>
+        <v>1522</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>1496</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
@@ -4350,7 +5475,7 @@
         <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>1024</v>
+        <v>1513</v>
       </c>
       <c r="F7" t="s">
         <v>25</v>
@@ -4365,7 +5490,7 @@
         <v>25</v>
       </c>
       <c r="J7" t="s">
-        <v>1022</v>
+        <v>1514</v>
       </c>
       <c r="K7" t="s">
         <v>25</v>
@@ -4374,10 +5499,10 @@
         <v>25</v>
       </c>
       <c r="M7" t="s">
-        <v>999</v>
+        <v>1334</v>
       </c>
       <c r="N7" t="s">
-        <v>1000</v>
+        <v>1335</v>
       </c>
       <c r="O7" t="s">
         <v>25</v>
@@ -4389,13 +5514,13 @@
         <v>33</v>
       </c>
       <c r="R7" t="s">
-        <v>996</v>
+        <v>1515</v>
       </c>
       <c r="S7" t="s">
-        <v>1001</v>
+        <v>1516</v>
       </c>
       <c r="T7" t="s">
-        <v>1057</v>
+        <v>1517</v>
       </c>
       <c r="U7" t="s">
         <v>26</v>
@@ -4407,7 +5532,7 @@
         <v>25</v>
       </c>
       <c r="X7" t="s">
-        <v>1020</v>
+        <v>1006</v>
       </c>
       <c r="Y7" t="s">
         <v>25</v>
@@ -4415,10 +5540,10 @@
     </row>
     <row r="8" spans="1:25" ht="16.2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>1148</v>
+        <v>1523</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>1496</v>
       </c>
       <c r="C8" t="s">
         <v>25</v>
@@ -4427,7 +5552,7 @@
         <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>1024</v>
+        <v>1513</v>
       </c>
       <c r="F8" t="s">
         <v>25</v>
@@ -4442,7 +5567,7 @@
         <v>25</v>
       </c>
       <c r="J8" t="s">
-        <v>1022</v>
+        <v>1514</v>
       </c>
       <c r="K8" t="s">
         <v>25</v>
@@ -4451,10 +5576,10 @@
         <v>25</v>
       </c>
       <c r="M8" t="s">
-        <v>999</v>
+        <v>1334</v>
       </c>
       <c r="N8" t="s">
-        <v>1000</v>
+        <v>1335</v>
       </c>
       <c r="O8" t="s">
         <v>25</v>
@@ -4466,13 +5591,13 @@
         <v>34</v>
       </c>
       <c r="R8" t="s">
-        <v>996</v>
+        <v>1515</v>
       </c>
       <c r="S8" t="s">
-        <v>1001</v>
+        <v>1516</v>
       </c>
       <c r="T8" t="s">
-        <v>1057</v>
+        <v>1517</v>
       </c>
       <c r="U8" t="s">
         <v>26</v>
@@ -4484,7 +5609,7 @@
         <v>25</v>
       </c>
       <c r="X8" t="s">
-        <v>1020</v>
+        <v>1006</v>
       </c>
       <c r="Y8" t="s">
         <v>25</v>
@@ -4492,10 +5617,10 @@
     </row>
     <row r="9" spans="1:25" ht="16.2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>1149</v>
+        <v>1524</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>1496</v>
       </c>
       <c r="C9" t="s">
         <v>25</v>
@@ -4504,7 +5629,7 @@
         <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>1024</v>
+        <v>1513</v>
       </c>
       <c r="F9" t="s">
         <v>25</v>
@@ -4519,7 +5644,7 @@
         <v>25</v>
       </c>
       <c r="J9" t="s">
-        <v>1022</v>
+        <v>1514</v>
       </c>
       <c r="K9" t="s">
         <v>25</v>
@@ -4528,10 +5653,10 @@
         <v>25</v>
       </c>
       <c r="M9" t="s">
-        <v>999</v>
+        <v>1334</v>
       </c>
       <c r="N9" t="s">
-        <v>1000</v>
+        <v>1335</v>
       </c>
       <c r="O9" t="s">
         <v>25</v>
@@ -4543,13 +5668,13 @@
         <v>35</v>
       </c>
       <c r="R9" t="s">
-        <v>996</v>
+        <v>1515</v>
       </c>
       <c r="S9" t="s">
-        <v>1001</v>
+        <v>1516</v>
       </c>
       <c r="T9" t="s">
-        <v>1057</v>
+        <v>1517</v>
       </c>
       <c r="U9" t="s">
         <v>26</v>
@@ -4561,7 +5686,7 @@
         <v>25</v>
       </c>
       <c r="X9" t="s">
-        <v>1020</v>
+        <v>1006</v>
       </c>
       <c r="Y9" t="s">
         <v>25</v>
@@ -4569,10 +5694,10 @@
     </row>
     <row r="10" spans="1:25" ht="16.2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>1150</v>
+        <v>1525</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>1496</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
@@ -4581,7 +5706,7 @@
         <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>1024</v>
+        <v>1513</v>
       </c>
       <c r="F10" t="s">
         <v>25</v>
@@ -4596,7 +5721,7 @@
         <v>25</v>
       </c>
       <c r="J10" t="s">
-        <v>1022</v>
+        <v>1514</v>
       </c>
       <c r="K10" t="s">
         <v>25</v>
@@ -4605,10 +5730,10 @@
         <v>25</v>
       </c>
       <c r="M10" t="s">
-        <v>999</v>
+        <v>1334</v>
       </c>
       <c r="N10" t="s">
-        <v>1000</v>
+        <v>1335</v>
       </c>
       <c r="O10" t="s">
         <v>25</v>
@@ -4620,13 +5745,13 @@
         <v>36</v>
       </c>
       <c r="R10" t="s">
-        <v>996</v>
+        <v>1515</v>
       </c>
       <c r="S10" t="s">
-        <v>1001</v>
+        <v>1516</v>
       </c>
       <c r="T10" t="s">
-        <v>1057</v>
+        <v>1517</v>
       </c>
       <c r="U10" t="s">
         <v>26</v>
@@ -4638,7 +5763,7 @@
         <v>25</v>
       </c>
       <c r="X10" t="s">
-        <v>1020</v>
+        <v>1006</v>
       </c>
       <c r="Y10" t="s">
         <v>25</v>
@@ -4646,10 +5771,10 @@
     </row>
     <row r="11" spans="1:25" ht="16.2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>1151</v>
+        <v>1526</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>1496</v>
       </c>
       <c r="C11" t="s">
         <v>25</v>
@@ -4658,7 +5783,7 @@
         <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>1024</v>
+        <v>1513</v>
       </c>
       <c r="F11" t="s">
         <v>25</v>
@@ -4673,7 +5798,7 @@
         <v>25</v>
       </c>
       <c r="J11" t="s">
-        <v>1022</v>
+        <v>1514</v>
       </c>
       <c r="K11" t="s">
         <v>25</v>
@@ -4682,10 +5807,10 @@
         <v>25</v>
       </c>
       <c r="M11" t="s">
-        <v>999</v>
+        <v>1334</v>
       </c>
       <c r="N11" t="s">
-        <v>1000</v>
+        <v>1335</v>
       </c>
       <c r="O11" t="s">
         <v>25</v>
@@ -4697,13 +5822,13 @@
         <v>37</v>
       </c>
       <c r="R11" t="s">
-        <v>996</v>
+        <v>1515</v>
       </c>
       <c r="S11" t="s">
-        <v>1001</v>
+        <v>1516</v>
       </c>
       <c r="T11" t="s">
-        <v>1057</v>
+        <v>1517</v>
       </c>
       <c r="U11" t="s">
         <v>26</v>
@@ -4715,7 +5840,7 @@
         <v>25</v>
       </c>
       <c r="X11" t="s">
-        <v>1020</v>
+        <v>1006</v>
       </c>
       <c r="Y11" t="s">
         <v>25</v>
@@ -4723,10 +5848,10 @@
     </row>
     <row r="12" spans="1:25" ht="16.2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>1152</v>
+        <v>1527</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>1496</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
@@ -4735,7 +5860,7 @@
         <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>1024</v>
+        <v>1513</v>
       </c>
       <c r="F12" t="s">
         <v>25</v>
@@ -4750,7 +5875,7 @@
         <v>25</v>
       </c>
       <c r="J12" t="s">
-        <v>1022</v>
+        <v>1514</v>
       </c>
       <c r="K12" t="s">
         <v>25</v>
@@ -4759,10 +5884,10 @@
         <v>25</v>
       </c>
       <c r="M12" t="s">
-        <v>999</v>
+        <v>1334</v>
       </c>
       <c r="N12" t="s">
-        <v>1000</v>
+        <v>1335</v>
       </c>
       <c r="O12" t="s">
         <v>25</v>
@@ -4774,13 +5899,13 @@
         <v>38</v>
       </c>
       <c r="R12" t="s">
-        <v>996</v>
+        <v>1515</v>
       </c>
       <c r="S12" t="s">
-        <v>1001</v>
+        <v>1516</v>
       </c>
       <c r="T12" t="s">
-        <v>1057</v>
+        <v>1517</v>
       </c>
       <c r="U12" t="s">
         <v>26</v>
@@ -4792,7 +5917,7 @@
         <v>25</v>
       </c>
       <c r="X12" t="s">
-        <v>1020</v>
+        <v>1006</v>
       </c>
       <c r="Y12" t="s">
         <v>25</v>
@@ -4800,10 +5925,10 @@
     </row>
     <row r="13" spans="1:25" ht="16.2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>1153</v>
+        <v>1528</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>1496</v>
       </c>
       <c r="C13" t="s">
         <v>25</v>
@@ -4812,7 +5937,7 @@
         <v>25</v>
       </c>
       <c r="E13" t="s">
-        <v>1024</v>
+        <v>1513</v>
       </c>
       <c r="F13" t="s">
         <v>25</v>
@@ -4827,7 +5952,7 @@
         <v>25</v>
       </c>
       <c r="J13" t="s">
-        <v>1022</v>
+        <v>1514</v>
       </c>
       <c r="K13" t="s">
         <v>25</v>
@@ -4836,10 +5961,10 @@
         <v>25</v>
       </c>
       <c r="M13" t="s">
-        <v>999</v>
+        <v>1334</v>
       </c>
       <c r="N13" t="s">
-        <v>1000</v>
+        <v>1335</v>
       </c>
       <c r="O13" t="s">
         <v>25</v>
@@ -4851,13 +5976,13 @@
         <v>39</v>
       </c>
       <c r="R13" t="s">
-        <v>996</v>
+        <v>1515</v>
       </c>
       <c r="S13" t="s">
-        <v>1001</v>
+        <v>1516</v>
       </c>
       <c r="T13" t="s">
-        <v>1057</v>
+        <v>1517</v>
       </c>
       <c r="U13" t="s">
         <v>26</v>
@@ -4869,7 +5994,7 @@
         <v>25</v>
       </c>
       <c r="X13" t="s">
-        <v>1020</v>
+        <v>1006</v>
       </c>
       <c r="Y13" t="s">
         <v>25</v>

--- a/Excel/SampleMetadata_Mobile.xlsx
+++ b/Excel/SampleMetadata_Mobile.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18217" uniqueCount="1529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19933" uniqueCount="1700">
   <si>
     <t>Result ID</t>
   </si>
@@ -4621,6 +4621,519 @@
   </si>
   <si>
     <t>A1506812</t>
+  </si>
+  <si>
+    <t>A1524801</t>
+  </si>
+  <si>
+    <t>1405006</t>
+  </si>
+  <si>
+    <t>20220913-Cocci-13656</t>
+  </si>
+  <si>
+    <t>A02799</t>
+  </si>
+  <si>
+    <t>TestComplexSite_20220913</t>
+  </si>
+  <si>
+    <t>TestFarm1_20220913</t>
+  </si>
+  <si>
+    <t>09/13/2022</t>
+  </si>
+  <si>
+    <t>4:36 AM</t>
+  </si>
+  <si>
+    <t>CartridgeCocci3656</t>
+  </si>
+  <si>
+    <t>09/07/2022</t>
+  </si>
+  <si>
+    <t>A1524802</t>
+  </si>
+  <si>
+    <t>A1524803</t>
+  </si>
+  <si>
+    <t>A1524804</t>
+  </si>
+  <si>
+    <t>A1524805</t>
+  </si>
+  <si>
+    <t>A1524806</t>
+  </si>
+  <si>
+    <t>A1524807</t>
+  </si>
+  <si>
+    <t>A1524808</t>
+  </si>
+  <si>
+    <t>A1524809</t>
+  </si>
+  <si>
+    <t>A1524810</t>
+  </si>
+  <si>
+    <t>A1524811</t>
+  </si>
+  <si>
+    <t>A1524812</t>
+  </si>
+  <si>
+    <t>A1524901</t>
+  </si>
+  <si>
+    <t>20220913-Cocci-23656</t>
+  </si>
+  <si>
+    <t>09/20/2022</t>
+  </si>
+  <si>
+    <t>A1524902</t>
+  </si>
+  <si>
+    <t>A1524903</t>
+  </si>
+  <si>
+    <t>A1524904</t>
+  </si>
+  <si>
+    <t>A1524905</t>
+  </si>
+  <si>
+    <t>A1524906</t>
+  </si>
+  <si>
+    <t>A1524907</t>
+  </si>
+  <si>
+    <t>A1524908</t>
+  </si>
+  <si>
+    <t>A1524909</t>
+  </si>
+  <si>
+    <t>A1524910</t>
+  </si>
+  <si>
+    <t>A1524911</t>
+  </si>
+  <si>
+    <t>A1524912</t>
+  </si>
+  <si>
+    <t>A1525001</t>
+  </si>
+  <si>
+    <t>20220913-Cocci-33656</t>
+  </si>
+  <si>
+    <t>09/29/2022</t>
+  </si>
+  <si>
+    <t>A1525002</t>
+  </si>
+  <si>
+    <t>A1525003</t>
+  </si>
+  <si>
+    <t>A1525004</t>
+  </si>
+  <si>
+    <t>A1525005</t>
+  </si>
+  <si>
+    <t>A1525006</t>
+  </si>
+  <si>
+    <t>A1525007</t>
+  </si>
+  <si>
+    <t>A1525008</t>
+  </si>
+  <si>
+    <t>A1525009</t>
+  </si>
+  <si>
+    <t>A1525010</t>
+  </si>
+  <si>
+    <t>A1525011</t>
+  </si>
+  <si>
+    <t>A1525012</t>
+  </si>
+  <si>
+    <t>A1525101</t>
+  </si>
+  <si>
+    <t>1405007</t>
+  </si>
+  <si>
+    <t>20220913-Cocci-41304</t>
+  </si>
+  <si>
+    <t>A02801</t>
+  </si>
+  <si>
+    <t>5:13 AM</t>
+  </si>
+  <si>
+    <t>CartridgeCocci1304</t>
+  </si>
+  <si>
+    <t>A1525102</t>
+  </si>
+  <si>
+    <t>A1525103</t>
+  </si>
+  <si>
+    <t>A1525104</t>
+  </si>
+  <si>
+    <t>A1525105</t>
+  </si>
+  <si>
+    <t>A1525106</t>
+  </si>
+  <si>
+    <t>A1525107</t>
+  </si>
+  <si>
+    <t>A1525108</t>
+  </si>
+  <si>
+    <t>A1525109</t>
+  </si>
+  <si>
+    <t>A1525110</t>
+  </si>
+  <si>
+    <t>A1525111</t>
+  </si>
+  <si>
+    <t>A1525112</t>
+  </si>
+  <si>
+    <t>A1525201</t>
+  </si>
+  <si>
+    <t>20220913-Cocci-51304</t>
+  </si>
+  <si>
+    <t>A1525202</t>
+  </si>
+  <si>
+    <t>A1525203</t>
+  </si>
+  <si>
+    <t>A1525204</t>
+  </si>
+  <si>
+    <t>A1525205</t>
+  </si>
+  <si>
+    <t>A1525206</t>
+  </si>
+  <si>
+    <t>A1525207</t>
+  </si>
+  <si>
+    <t>A1525208</t>
+  </si>
+  <si>
+    <t>A1525209</t>
+  </si>
+  <si>
+    <t>A1525210</t>
+  </si>
+  <si>
+    <t>A1525211</t>
+  </si>
+  <si>
+    <t>A1525212</t>
+  </si>
+  <si>
+    <t>A1525301</t>
+  </si>
+  <si>
+    <t>1405008</t>
+  </si>
+  <si>
+    <t>20220913-Cocci-61304</t>
+  </si>
+  <si>
+    <t>10/10/2022</t>
+  </si>
+  <si>
+    <t>A1525302</t>
+  </si>
+  <si>
+    <t>A1525303</t>
+  </si>
+  <si>
+    <t>A1525304</t>
+  </si>
+  <si>
+    <t>A1525305</t>
+  </si>
+  <si>
+    <t>A1525306</t>
+  </si>
+  <si>
+    <t>A1525307</t>
+  </si>
+  <si>
+    <t>A1525308</t>
+  </si>
+  <si>
+    <t>A1525309</t>
+  </si>
+  <si>
+    <t>A1525310</t>
+  </si>
+  <si>
+    <t>A1525311</t>
+  </si>
+  <si>
+    <t>A1525312</t>
+  </si>
+  <si>
+    <t>A1525401</t>
+  </si>
+  <si>
+    <t>20220913-Cocci-71304</t>
+  </si>
+  <si>
+    <t>09/28/2022</t>
+  </si>
+  <si>
+    <t>A1525402</t>
+  </si>
+  <si>
+    <t>A1525403</t>
+  </si>
+  <si>
+    <t>A1525404</t>
+  </si>
+  <si>
+    <t>A1525405</t>
+  </si>
+  <si>
+    <t>A1525406</t>
+  </si>
+  <si>
+    <t>A1525407</t>
+  </si>
+  <si>
+    <t>A1525408</t>
+  </si>
+  <si>
+    <t>A1525409</t>
+  </si>
+  <si>
+    <t>A1525410</t>
+  </si>
+  <si>
+    <t>A1525411</t>
+  </si>
+  <si>
+    <t>A1525412</t>
+  </si>
+  <si>
+    <t>A1525501</t>
+  </si>
+  <si>
+    <t>20220913-Cocci-83340</t>
+  </si>
+  <si>
+    <t>A02802</t>
+  </si>
+  <si>
+    <t>5:33 AM</t>
+  </si>
+  <si>
+    <t>CartridgeCocci3340</t>
+  </si>
+  <si>
+    <t>10/05/2022</t>
+  </si>
+  <si>
+    <t>A1525502</t>
+  </si>
+  <si>
+    <t>A1525503</t>
+  </si>
+  <si>
+    <t>A1525504</t>
+  </si>
+  <si>
+    <t>A1525505</t>
+  </si>
+  <si>
+    <t>A1525506</t>
+  </si>
+  <si>
+    <t>A1525507</t>
+  </si>
+  <si>
+    <t>A1525508</t>
+  </si>
+  <si>
+    <t>A1525509</t>
+  </si>
+  <si>
+    <t>A1525510</t>
+  </si>
+  <si>
+    <t>A1525511</t>
+  </si>
+  <si>
+    <t>A1525512</t>
+  </si>
+  <si>
+    <t>A1525601</t>
+  </si>
+  <si>
+    <t>20220913-Cocci-93340</t>
+  </si>
+  <si>
+    <t>10/25/2022</t>
+  </si>
+  <si>
+    <t>A1525602</t>
+  </si>
+  <si>
+    <t>A1525603</t>
+  </si>
+  <si>
+    <t>A1525604</t>
+  </si>
+  <si>
+    <t>A1525605</t>
+  </si>
+  <si>
+    <t>A1525606</t>
+  </si>
+  <si>
+    <t>A1525607</t>
+  </si>
+  <si>
+    <t>A1525608</t>
+  </si>
+  <si>
+    <t>A1525609</t>
+  </si>
+  <si>
+    <t>A1525610</t>
+  </si>
+  <si>
+    <t>A1525611</t>
+  </si>
+  <si>
+    <t>A1525612</t>
+  </si>
+  <si>
+    <t>A1525701</t>
+  </si>
+  <si>
+    <t>1405009</t>
+  </si>
+  <si>
+    <t>20220913-Cocci-100317</t>
+  </si>
+  <si>
+    <t>A02803</t>
+  </si>
+  <si>
+    <t>6:03 AM</t>
+  </si>
+  <si>
+    <t>CartridgeCocci0317</t>
+  </si>
+  <si>
+    <t>A1525702</t>
+  </si>
+  <si>
+    <t>A1525703</t>
+  </si>
+  <si>
+    <t>A1525704</t>
+  </si>
+  <si>
+    <t>A1525705</t>
+  </si>
+  <si>
+    <t>A1525706</t>
+  </si>
+  <si>
+    <t>A1525707</t>
+  </si>
+  <si>
+    <t>A1525708</t>
+  </si>
+  <si>
+    <t>A1525709</t>
+  </si>
+  <si>
+    <t>A1525710</t>
+  </si>
+  <si>
+    <t>A1525711</t>
+  </si>
+  <si>
+    <t>A1525712</t>
+  </si>
+  <si>
+    <t>A1525801</t>
+  </si>
+  <si>
+    <t>1405010</t>
+  </si>
+  <si>
+    <t>20220913-Cocci-110317</t>
+  </si>
+  <si>
+    <t>A02804</t>
+  </si>
+  <si>
+    <t>A1525802</t>
+  </si>
+  <si>
+    <t>A1525803</t>
+  </si>
+  <si>
+    <t>A1525804</t>
+  </si>
+  <si>
+    <t>A1525805</t>
+  </si>
+  <si>
+    <t>A1525806</t>
+  </si>
+  <si>
+    <t>A1525807</t>
+  </si>
+  <si>
+    <t>A1525808</t>
+  </si>
+  <si>
+    <t>A1525809</t>
+  </si>
+  <si>
+    <t>A1525810</t>
+  </si>
+  <si>
+    <t>A1525811</t>
+  </si>
+  <si>
+    <t>A1525812</t>
   </si>
 </sst>
 </file>
@@ -5078,10 +5591,10 @@
     </row>
     <row r="2" spans="1:25" ht="16.2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>1512</v>
+        <v>1685</v>
       </c>
       <c r="B2" t="s">
-        <v>1496</v>
+        <v>1686</v>
       </c>
       <c r="C2" t="s">
         <v>25</v>
@@ -5090,7 +5603,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>1513</v>
+        <v>1687</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
@@ -5105,7 +5618,7 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>1514</v>
+        <v>1688</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -5114,10 +5627,10 @@
         <v>25</v>
       </c>
       <c r="M2" t="s">
-        <v>1334</v>
+        <v>1533</v>
       </c>
       <c r="N2" t="s">
-        <v>1335</v>
+        <v>1534</v>
       </c>
       <c r="O2" t="s">
         <v>25</v>
@@ -5129,13 +5642,13 @@
         <v>28</v>
       </c>
       <c r="R2" t="s">
-        <v>1515</v>
+        <v>1535</v>
       </c>
       <c r="S2" t="s">
-        <v>1516</v>
+        <v>1672</v>
       </c>
       <c r="T2" t="s">
-        <v>1517</v>
+        <v>1673</v>
       </c>
       <c r="U2" t="s">
         <v>26</v>
@@ -5147,7 +5660,7 @@
         <v>25</v>
       </c>
       <c r="X2" t="s">
-        <v>1006</v>
+        <v>1656</v>
       </c>
       <c r="Y2" t="s">
         <v>25</v>
@@ -5155,10 +5668,10 @@
     </row>
     <row r="3" spans="1:25" ht="16.2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>1518</v>
+        <v>1689</v>
       </c>
       <c r="B3" t="s">
-        <v>1496</v>
+        <v>1686</v>
       </c>
       <c r="C3" t="s">
         <v>25</v>
@@ -5167,7 +5680,7 @@
         <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>1513</v>
+        <v>1687</v>
       </c>
       <c r="F3" t="s">
         <v>25</v>
@@ -5182,7 +5695,7 @@
         <v>25</v>
       </c>
       <c r="J3" t="s">
-        <v>1514</v>
+        <v>1688</v>
       </c>
       <c r="K3" t="s">
         <v>25</v>
@@ -5191,10 +5704,10 @@
         <v>25</v>
       </c>
       <c r="M3" t="s">
-        <v>1334</v>
+        <v>1533</v>
       </c>
       <c r="N3" t="s">
-        <v>1335</v>
+        <v>1534</v>
       </c>
       <c r="O3" t="s">
         <v>25</v>
@@ -5206,13 +5719,13 @@
         <v>29</v>
       </c>
       <c r="R3" t="s">
-        <v>1515</v>
+        <v>1535</v>
       </c>
       <c r="S3" t="s">
-        <v>1516</v>
+        <v>1672</v>
       </c>
       <c r="T3" t="s">
-        <v>1517</v>
+        <v>1673</v>
       </c>
       <c r="U3" t="s">
         <v>26</v>
@@ -5224,7 +5737,7 @@
         <v>25</v>
       </c>
       <c r="X3" t="s">
-        <v>1006</v>
+        <v>1656</v>
       </c>
       <c r="Y3" t="s">
         <v>25</v>
@@ -5232,10 +5745,10 @@
     </row>
     <row r="4" spans="1:25" ht="16.2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>1519</v>
+        <v>1690</v>
       </c>
       <c r="B4" t="s">
-        <v>1496</v>
+        <v>1686</v>
       </c>
       <c r="C4" t="s">
         <v>25</v>
@@ -5244,7 +5757,7 @@
         <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>1513</v>
+        <v>1687</v>
       </c>
       <c r="F4" t="s">
         <v>25</v>
@@ -5259,7 +5772,7 @@
         <v>25</v>
       </c>
       <c r="J4" t="s">
-        <v>1514</v>
+        <v>1688</v>
       </c>
       <c r="K4" t="s">
         <v>25</v>
@@ -5268,10 +5781,10 @@
         <v>25</v>
       </c>
       <c r="M4" t="s">
-        <v>1334</v>
+        <v>1533</v>
       </c>
       <c r="N4" t="s">
-        <v>1335</v>
+        <v>1534</v>
       </c>
       <c r="O4" t="s">
         <v>25</v>
@@ -5283,13 +5796,13 @@
         <v>30</v>
       </c>
       <c r="R4" t="s">
-        <v>1515</v>
+        <v>1535</v>
       </c>
       <c r="S4" t="s">
-        <v>1516</v>
+        <v>1672</v>
       </c>
       <c r="T4" t="s">
-        <v>1517</v>
+        <v>1673</v>
       </c>
       <c r="U4" t="s">
         <v>26</v>
@@ -5301,7 +5814,7 @@
         <v>25</v>
       </c>
       <c r="X4" t="s">
-        <v>1006</v>
+        <v>1656</v>
       </c>
       <c r="Y4" t="s">
         <v>25</v>
@@ -5309,10 +5822,10 @@
     </row>
     <row r="5" spans="1:25" ht="16.2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>1520</v>
+        <v>1691</v>
       </c>
       <c r="B5" t="s">
-        <v>1496</v>
+        <v>1686</v>
       </c>
       <c r="C5" t="s">
         <v>25</v>
@@ -5321,7 +5834,7 @@
         <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>1513</v>
+        <v>1687</v>
       </c>
       <c r="F5" t="s">
         <v>25</v>
@@ -5336,7 +5849,7 @@
         <v>25</v>
       </c>
       <c r="J5" t="s">
-        <v>1514</v>
+        <v>1688</v>
       </c>
       <c r="K5" t="s">
         <v>25</v>
@@ -5345,10 +5858,10 @@
         <v>25</v>
       </c>
       <c r="M5" t="s">
-        <v>1334</v>
+        <v>1533</v>
       </c>
       <c r="N5" t="s">
-        <v>1335</v>
+        <v>1534</v>
       </c>
       <c r="O5" t="s">
         <v>25</v>
@@ -5360,13 +5873,13 @@
         <v>31</v>
       </c>
       <c r="R5" t="s">
-        <v>1515</v>
+        <v>1535</v>
       </c>
       <c r="S5" t="s">
-        <v>1516</v>
+        <v>1672</v>
       </c>
       <c r="T5" t="s">
-        <v>1517</v>
+        <v>1673</v>
       </c>
       <c r="U5" t="s">
         <v>26</v>
@@ -5378,7 +5891,7 @@
         <v>25</v>
       </c>
       <c r="X5" t="s">
-        <v>1006</v>
+        <v>1656</v>
       </c>
       <c r="Y5" t="s">
         <v>25</v>
@@ -5386,10 +5899,10 @@
     </row>
     <row r="6" spans="1:25" ht="16.2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>1521</v>
+        <v>1692</v>
       </c>
       <c r="B6" t="s">
-        <v>1496</v>
+        <v>1686</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
@@ -5398,7 +5911,7 @@
         <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>1513</v>
+        <v>1687</v>
       </c>
       <c r="F6" t="s">
         <v>25</v>
@@ -5413,7 +5926,7 @@
         <v>25</v>
       </c>
       <c r="J6" t="s">
-        <v>1514</v>
+        <v>1688</v>
       </c>
       <c r="K6" t="s">
         <v>25</v>
@@ -5422,10 +5935,10 @@
         <v>25</v>
       </c>
       <c r="M6" t="s">
-        <v>1334</v>
+        <v>1533</v>
       </c>
       <c r="N6" t="s">
-        <v>1335</v>
+        <v>1534</v>
       </c>
       <c r="O6" t="s">
         <v>25</v>
@@ -5437,13 +5950,13 @@
         <v>32</v>
       </c>
       <c r="R6" t="s">
-        <v>1515</v>
+        <v>1535</v>
       </c>
       <c r="S6" t="s">
-        <v>1516</v>
+        <v>1672</v>
       </c>
       <c r="T6" t="s">
-        <v>1517</v>
+        <v>1673</v>
       </c>
       <c r="U6" t="s">
         <v>26</v>
@@ -5455,7 +5968,7 @@
         <v>25</v>
       </c>
       <c r="X6" t="s">
-        <v>1006</v>
+        <v>1656</v>
       </c>
       <c r="Y6" t="s">
         <v>25</v>
@@ -5463,10 +5976,10 @@
     </row>
     <row r="7" spans="1:25" ht="16.2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>1522</v>
+        <v>1693</v>
       </c>
       <c r="B7" t="s">
-        <v>1496</v>
+        <v>1686</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
@@ -5475,7 +5988,7 @@
         <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>1513</v>
+        <v>1687</v>
       </c>
       <c r="F7" t="s">
         <v>25</v>
@@ -5490,7 +6003,7 @@
         <v>25</v>
       </c>
       <c r="J7" t="s">
-        <v>1514</v>
+        <v>1688</v>
       </c>
       <c r="K7" t="s">
         <v>25</v>
@@ -5499,10 +6012,10 @@
         <v>25</v>
       </c>
       <c r="M7" t="s">
-        <v>1334</v>
+        <v>1533</v>
       </c>
       <c r="N7" t="s">
-        <v>1335</v>
+        <v>1534</v>
       </c>
       <c r="O7" t="s">
         <v>25</v>
@@ -5514,13 +6027,13 @@
         <v>33</v>
       </c>
       <c r="R7" t="s">
-        <v>1515</v>
+        <v>1535</v>
       </c>
       <c r="S7" t="s">
-        <v>1516</v>
+        <v>1672</v>
       </c>
       <c r="T7" t="s">
-        <v>1517</v>
+        <v>1673</v>
       </c>
       <c r="U7" t="s">
         <v>26</v>
@@ -5532,7 +6045,7 @@
         <v>25</v>
       </c>
       <c r="X7" t="s">
-        <v>1006</v>
+        <v>1656</v>
       </c>
       <c r="Y7" t="s">
         <v>25</v>
@@ -5540,10 +6053,10 @@
     </row>
     <row r="8" spans="1:25" ht="16.2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>1523</v>
+        <v>1694</v>
       </c>
       <c r="B8" t="s">
-        <v>1496</v>
+        <v>1686</v>
       </c>
       <c r="C8" t="s">
         <v>25</v>
@@ -5552,7 +6065,7 @@
         <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>1513</v>
+        <v>1687</v>
       </c>
       <c r="F8" t="s">
         <v>25</v>
@@ -5567,7 +6080,7 @@
         <v>25</v>
       </c>
       <c r="J8" t="s">
-        <v>1514</v>
+        <v>1688</v>
       </c>
       <c r="K8" t="s">
         <v>25</v>
@@ -5576,10 +6089,10 @@
         <v>25</v>
       </c>
       <c r="M8" t="s">
-        <v>1334</v>
+        <v>1533</v>
       </c>
       <c r="N8" t="s">
-        <v>1335</v>
+        <v>1534</v>
       </c>
       <c r="O8" t="s">
         <v>25</v>
@@ -5591,13 +6104,13 @@
         <v>34</v>
       </c>
       <c r="R8" t="s">
-        <v>1515</v>
+        <v>1535</v>
       </c>
       <c r="S8" t="s">
-        <v>1516</v>
+        <v>1672</v>
       </c>
       <c r="T8" t="s">
-        <v>1517</v>
+        <v>1673</v>
       </c>
       <c r="U8" t="s">
         <v>26</v>
@@ -5609,7 +6122,7 @@
         <v>25</v>
       </c>
       <c r="X8" t="s">
-        <v>1006</v>
+        <v>1656</v>
       </c>
       <c r="Y8" t="s">
         <v>25</v>
@@ -5617,10 +6130,10 @@
     </row>
     <row r="9" spans="1:25" ht="16.2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>1524</v>
+        <v>1695</v>
       </c>
       <c r="B9" t="s">
-        <v>1496</v>
+        <v>1686</v>
       </c>
       <c r="C9" t="s">
         <v>25</v>
@@ -5629,7 +6142,7 @@
         <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>1513</v>
+        <v>1687</v>
       </c>
       <c r="F9" t="s">
         <v>25</v>
@@ -5644,7 +6157,7 @@
         <v>25</v>
       </c>
       <c r="J9" t="s">
-        <v>1514</v>
+        <v>1688</v>
       </c>
       <c r="K9" t="s">
         <v>25</v>
@@ -5653,10 +6166,10 @@
         <v>25</v>
       </c>
       <c r="M9" t="s">
-        <v>1334</v>
+        <v>1533</v>
       </c>
       <c r="N9" t="s">
-        <v>1335</v>
+        <v>1534</v>
       </c>
       <c r="O9" t="s">
         <v>25</v>
@@ -5668,13 +6181,13 @@
         <v>35</v>
       </c>
       <c r="R9" t="s">
-        <v>1515</v>
+        <v>1535</v>
       </c>
       <c r="S9" t="s">
-        <v>1516</v>
+        <v>1672</v>
       </c>
       <c r="T9" t="s">
-        <v>1517</v>
+        <v>1673</v>
       </c>
       <c r="U9" t="s">
         <v>26</v>
@@ -5686,7 +6199,7 @@
         <v>25</v>
       </c>
       <c r="X9" t="s">
-        <v>1006</v>
+        <v>1656</v>
       </c>
       <c r="Y9" t="s">
         <v>25</v>
@@ -5694,10 +6207,10 @@
     </row>
     <row r="10" spans="1:25" ht="16.2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>1525</v>
+        <v>1696</v>
       </c>
       <c r="B10" t="s">
-        <v>1496</v>
+        <v>1686</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
@@ -5706,7 +6219,7 @@
         <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>1513</v>
+        <v>1687</v>
       </c>
       <c r="F10" t="s">
         <v>25</v>
@@ -5721,7 +6234,7 @@
         <v>25</v>
       </c>
       <c r="J10" t="s">
-        <v>1514</v>
+        <v>1688</v>
       </c>
       <c r="K10" t="s">
         <v>25</v>
@@ -5730,10 +6243,10 @@
         <v>25</v>
       </c>
       <c r="M10" t="s">
-        <v>1334</v>
+        <v>1533</v>
       </c>
       <c r="N10" t="s">
-        <v>1335</v>
+        <v>1534</v>
       </c>
       <c r="O10" t="s">
         <v>25</v>
@@ -5745,13 +6258,13 @@
         <v>36</v>
       </c>
       <c r="R10" t="s">
-        <v>1515</v>
+        <v>1535</v>
       </c>
       <c r="S10" t="s">
-        <v>1516</v>
+        <v>1672</v>
       </c>
       <c r="T10" t="s">
-        <v>1517</v>
+        <v>1673</v>
       </c>
       <c r="U10" t="s">
         <v>26</v>
@@ -5763,7 +6276,7 @@
         <v>25</v>
       </c>
       <c r="X10" t="s">
-        <v>1006</v>
+        <v>1656</v>
       </c>
       <c r="Y10" t="s">
         <v>25</v>
@@ -5771,10 +6284,10 @@
     </row>
     <row r="11" spans="1:25" ht="16.2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>1526</v>
+        <v>1697</v>
       </c>
       <c r="B11" t="s">
-        <v>1496</v>
+        <v>1686</v>
       </c>
       <c r="C11" t="s">
         <v>25</v>
@@ -5783,7 +6296,7 @@
         <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>1513</v>
+        <v>1687</v>
       </c>
       <c r="F11" t="s">
         <v>25</v>
@@ -5798,7 +6311,7 @@
         <v>25</v>
       </c>
       <c r="J11" t="s">
-        <v>1514</v>
+        <v>1688</v>
       </c>
       <c r="K11" t="s">
         <v>25</v>
@@ -5807,10 +6320,10 @@
         <v>25</v>
       </c>
       <c r="M11" t="s">
-        <v>1334</v>
+        <v>1533</v>
       </c>
       <c r="N11" t="s">
-        <v>1335</v>
+        <v>1534</v>
       </c>
       <c r="O11" t="s">
         <v>25</v>
@@ -5822,13 +6335,13 @@
         <v>37</v>
       </c>
       <c r="R11" t="s">
-        <v>1515</v>
+        <v>1535</v>
       </c>
       <c r="S11" t="s">
-        <v>1516</v>
+        <v>1672</v>
       </c>
       <c r="T11" t="s">
-        <v>1517</v>
+        <v>1673</v>
       </c>
       <c r="U11" t="s">
         <v>26</v>
@@ -5840,7 +6353,7 @@
         <v>25</v>
       </c>
       <c r="X11" t="s">
-        <v>1006</v>
+        <v>1656</v>
       </c>
       <c r="Y11" t="s">
         <v>25</v>
@@ -5848,10 +6361,10 @@
     </row>
     <row r="12" spans="1:25" ht="16.2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>1527</v>
+        <v>1698</v>
       </c>
       <c r="B12" t="s">
-        <v>1496</v>
+        <v>1686</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
@@ -5860,7 +6373,7 @@
         <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>1513</v>
+        <v>1687</v>
       </c>
       <c r="F12" t="s">
         <v>25</v>
@@ -5875,7 +6388,7 @@
         <v>25</v>
       </c>
       <c r="J12" t="s">
-        <v>1514</v>
+        <v>1688</v>
       </c>
       <c r="K12" t="s">
         <v>25</v>
@@ -5884,10 +6397,10 @@
         <v>25</v>
       </c>
       <c r="M12" t="s">
-        <v>1334</v>
+        <v>1533</v>
       </c>
       <c r="N12" t="s">
-        <v>1335</v>
+        <v>1534</v>
       </c>
       <c r="O12" t="s">
         <v>25</v>
@@ -5899,13 +6412,13 @@
         <v>38</v>
       </c>
       <c r="R12" t="s">
-        <v>1515</v>
+        <v>1535</v>
       </c>
       <c r="S12" t="s">
-        <v>1516</v>
+        <v>1672</v>
       </c>
       <c r="T12" t="s">
-        <v>1517</v>
+        <v>1673</v>
       </c>
       <c r="U12" t="s">
         <v>26</v>
@@ -5917,7 +6430,7 @@
         <v>25</v>
       </c>
       <c r="X12" t="s">
-        <v>1006</v>
+        <v>1656</v>
       </c>
       <c r="Y12" t="s">
         <v>25</v>
@@ -5925,10 +6438,10 @@
     </row>
     <row r="13" spans="1:25" ht="16.2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>1528</v>
+        <v>1699</v>
       </c>
       <c r="B13" t="s">
-        <v>1496</v>
+        <v>1686</v>
       </c>
       <c r="C13" t="s">
         <v>25</v>
@@ -5937,7 +6450,7 @@
         <v>25</v>
       </c>
       <c r="E13" t="s">
-        <v>1513</v>
+        <v>1687</v>
       </c>
       <c r="F13" t="s">
         <v>25</v>
@@ -5952,7 +6465,7 @@
         <v>25</v>
       </c>
       <c r="J13" t="s">
-        <v>1514</v>
+        <v>1688</v>
       </c>
       <c r="K13" t="s">
         <v>25</v>
@@ -5961,10 +6474,10 @@
         <v>25</v>
       </c>
       <c r="M13" t="s">
-        <v>1334</v>
+        <v>1533</v>
       </c>
       <c r="N13" t="s">
-        <v>1335</v>
+        <v>1534</v>
       </c>
       <c r="O13" t="s">
         <v>25</v>
@@ -5976,13 +6489,13 @@
         <v>39</v>
       </c>
       <c r="R13" t="s">
-        <v>1515</v>
+        <v>1535</v>
       </c>
       <c r="S13" t="s">
-        <v>1516</v>
+        <v>1672</v>
       </c>
       <c r="T13" t="s">
-        <v>1517</v>
+        <v>1673</v>
       </c>
       <c r="U13" t="s">
         <v>26</v>
@@ -5994,7 +6507,7 @@
         <v>25</v>
       </c>
       <c r="X13" t="s">
-        <v>1006</v>
+        <v>1656</v>
       </c>
       <c r="Y13" t="s">
         <v>25</v>

--- a/Excel/SampleMetadata_Mobile.xlsx
+++ b/Excel/SampleMetadata_Mobile.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19933" uniqueCount="1700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23653" uniqueCount="2049">
   <si>
     <t>Result ID</t>
   </si>
@@ -5134,6 +5134,1053 @@
   </si>
   <si>
     <t>A1525812</t>
+  </si>
+  <si>
+    <t>A1106201</t>
+  </si>
+  <si>
+    <t>1021006</t>
+  </si>
+  <si>
+    <t>20221110-Cocci-15930</t>
+  </si>
+  <si>
+    <t>A00370</t>
+  </si>
+  <si>
+    <t>TestComplexSite_20221110</t>
+  </si>
+  <si>
+    <t>TestFarm1_20221110</t>
+  </si>
+  <si>
+    <t>11/10/2022</t>
+  </si>
+  <si>
+    <t>4:59 PM</t>
+  </si>
+  <si>
+    <t>CartridgeCocci5930</t>
+  </si>
+  <si>
+    <t>AFrancisco</t>
+  </si>
+  <si>
+    <t>11/07/2022</t>
+  </si>
+  <si>
+    <t>A1106202</t>
+  </si>
+  <si>
+    <t>A1106203</t>
+  </si>
+  <si>
+    <t>A1106204</t>
+  </si>
+  <si>
+    <t>A1106205</t>
+  </si>
+  <si>
+    <t>A1106206</t>
+  </si>
+  <si>
+    <t>A1106207</t>
+  </si>
+  <si>
+    <t>A1106208</t>
+  </si>
+  <si>
+    <t>A1106209</t>
+  </si>
+  <si>
+    <t>A1106210</t>
+  </si>
+  <si>
+    <t>A1106211</t>
+  </si>
+  <si>
+    <t>A1106212</t>
+  </si>
+  <si>
+    <t>A1106301</t>
+  </si>
+  <si>
+    <t>20221110-Cocci-25930</t>
+  </si>
+  <si>
+    <t>11/20/2022</t>
+  </si>
+  <si>
+    <t>A1106302</t>
+  </si>
+  <si>
+    <t>A1106303</t>
+  </si>
+  <si>
+    <t>A1106304</t>
+  </si>
+  <si>
+    <t>A1106305</t>
+  </si>
+  <si>
+    <t>A1106306</t>
+  </si>
+  <si>
+    <t>A1106307</t>
+  </si>
+  <si>
+    <t>A1106308</t>
+  </si>
+  <si>
+    <t>A1106309</t>
+  </si>
+  <si>
+    <t>A1106310</t>
+  </si>
+  <si>
+    <t>A1106311</t>
+  </si>
+  <si>
+    <t>A1106312</t>
+  </si>
+  <si>
+    <t>A1106401</t>
+  </si>
+  <si>
+    <t>20221110-Cocci-35930</t>
+  </si>
+  <si>
+    <t>11/29/2022</t>
+  </si>
+  <si>
+    <t>A1106402</t>
+  </si>
+  <si>
+    <t>A1106403</t>
+  </si>
+  <si>
+    <t>A1106404</t>
+  </si>
+  <si>
+    <t>A1106405</t>
+  </si>
+  <si>
+    <t>A1106406</t>
+  </si>
+  <si>
+    <t>A1106407</t>
+  </si>
+  <si>
+    <t>A1106408</t>
+  </si>
+  <si>
+    <t>A1106409</t>
+  </si>
+  <si>
+    <t>A1106410</t>
+  </si>
+  <si>
+    <t>A1106411</t>
+  </si>
+  <si>
+    <t>A1106412</t>
+  </si>
+  <si>
+    <t>A1106501</t>
+  </si>
+  <si>
+    <t>1021007</t>
+  </si>
+  <si>
+    <t>20221110-Cocci-40846</t>
+  </si>
+  <si>
+    <t>A00371</t>
+  </si>
+  <si>
+    <t>5:08 PM</t>
+  </si>
+  <si>
+    <t>CartridgeCocci0846</t>
+  </si>
+  <si>
+    <t>A1106502</t>
+  </si>
+  <si>
+    <t>A1106503</t>
+  </si>
+  <si>
+    <t>A1106504</t>
+  </si>
+  <si>
+    <t>A1106505</t>
+  </si>
+  <si>
+    <t>A1106506</t>
+  </si>
+  <si>
+    <t>A1106507</t>
+  </si>
+  <si>
+    <t>A1106508</t>
+  </si>
+  <si>
+    <t>A1106509</t>
+  </si>
+  <si>
+    <t>A1106510</t>
+  </si>
+  <si>
+    <t>A1106511</t>
+  </si>
+  <si>
+    <t>A1106512</t>
+  </si>
+  <si>
+    <t>A1106601</t>
+  </si>
+  <si>
+    <t>20221110-Cocci-50846</t>
+  </si>
+  <si>
+    <t>A1106602</t>
+  </si>
+  <si>
+    <t>A1106603</t>
+  </si>
+  <si>
+    <t>A1106604</t>
+  </si>
+  <si>
+    <t>A1106605</t>
+  </si>
+  <si>
+    <t>A1106606</t>
+  </si>
+  <si>
+    <t>A1106607</t>
+  </si>
+  <si>
+    <t>A1106608</t>
+  </si>
+  <si>
+    <t>A1106609</t>
+  </si>
+  <si>
+    <t>A1106610</t>
+  </si>
+  <si>
+    <t>A1106611</t>
+  </si>
+  <si>
+    <t>A1106612</t>
+  </si>
+  <si>
+    <t>A1106701</t>
+  </si>
+  <si>
+    <t>1021008</t>
+  </si>
+  <si>
+    <t>20221110-Cocci-60846</t>
+  </si>
+  <si>
+    <t>A1106702</t>
+  </si>
+  <si>
+    <t>A1106703</t>
+  </si>
+  <si>
+    <t>A1106704</t>
+  </si>
+  <si>
+    <t>A1106705</t>
+  </si>
+  <si>
+    <t>A1106706</t>
+  </si>
+  <si>
+    <t>A1106707</t>
+  </si>
+  <si>
+    <t>A1106708</t>
+  </si>
+  <si>
+    <t>A1106709</t>
+  </si>
+  <si>
+    <t>A1106710</t>
+  </si>
+  <si>
+    <t>A1106711</t>
+  </si>
+  <si>
+    <t>A1106712</t>
+  </si>
+  <si>
+    <t>A1106801</t>
+  </si>
+  <si>
+    <t>20221110-Cocci-70846</t>
+  </si>
+  <si>
+    <t>A1106802</t>
+  </si>
+  <si>
+    <t>A1106803</t>
+  </si>
+  <si>
+    <t>A1106804</t>
+  </si>
+  <si>
+    <t>A1106805</t>
+  </si>
+  <si>
+    <t>A1106806</t>
+  </si>
+  <si>
+    <t>A1106807</t>
+  </si>
+  <si>
+    <t>A1106808</t>
+  </si>
+  <si>
+    <t>A1106809</t>
+  </si>
+  <si>
+    <t>A1106810</t>
+  </si>
+  <si>
+    <t>A1106811</t>
+  </si>
+  <si>
+    <t>A1106812</t>
+  </si>
+  <si>
+    <t>A1106901</t>
+  </si>
+  <si>
+    <t>20221110-Cocci-80846</t>
+  </si>
+  <si>
+    <t>A00372</t>
+  </si>
+  <si>
+    <t>A1106902</t>
+  </si>
+  <si>
+    <t>A1106903</t>
+  </si>
+  <si>
+    <t>A1106904</t>
+  </si>
+  <si>
+    <t>A1106905</t>
+  </si>
+  <si>
+    <t>A1106906</t>
+  </si>
+  <si>
+    <t>A1106907</t>
+  </si>
+  <si>
+    <t>A1106908</t>
+  </si>
+  <si>
+    <t>A1106909</t>
+  </si>
+  <si>
+    <t>A1106910</t>
+  </si>
+  <si>
+    <t>A1106911</t>
+  </si>
+  <si>
+    <t>A1106912</t>
+  </si>
+  <si>
+    <t>A1107001</t>
+  </si>
+  <si>
+    <t>1021009</t>
+  </si>
+  <si>
+    <t>20221110-Cocci-90846</t>
+  </si>
+  <si>
+    <t>A1107002</t>
+  </si>
+  <si>
+    <t>A1107003</t>
+  </si>
+  <si>
+    <t>A1107004</t>
+  </si>
+  <si>
+    <t>A1107005</t>
+  </si>
+  <si>
+    <t>A1107006</t>
+  </si>
+  <si>
+    <t>A1107007</t>
+  </si>
+  <si>
+    <t>A1107008</t>
+  </si>
+  <si>
+    <t>A1107009</t>
+  </si>
+  <si>
+    <t>A1107010</t>
+  </si>
+  <si>
+    <t>A1107011</t>
+  </si>
+  <si>
+    <t>A1107012</t>
+  </si>
+  <si>
+    <t>A1107101</t>
+  </si>
+  <si>
+    <t>20221110-Cocci-100846</t>
+  </si>
+  <si>
+    <t>A1107102</t>
+  </si>
+  <si>
+    <t>A1107103</t>
+  </si>
+  <si>
+    <t>A1107104</t>
+  </si>
+  <si>
+    <t>A1107105</t>
+  </si>
+  <si>
+    <t>A1107106</t>
+  </si>
+  <si>
+    <t>A1107107</t>
+  </si>
+  <si>
+    <t>A1107108</t>
+  </si>
+  <si>
+    <t>A1107109</t>
+  </si>
+  <si>
+    <t>A1107110</t>
+  </si>
+  <si>
+    <t>A1107111</t>
+  </si>
+  <si>
+    <t>A1107112</t>
+  </si>
+  <si>
+    <t>A1107201</t>
+  </si>
+  <si>
+    <t>20221110-Cocci-110846</t>
+  </si>
+  <si>
+    <t>A1107202</t>
+  </si>
+  <si>
+    <t>A1107203</t>
+  </si>
+  <si>
+    <t>A1107204</t>
+  </si>
+  <si>
+    <t>A1107205</t>
+  </si>
+  <si>
+    <t>A1107206</t>
+  </si>
+  <si>
+    <t>A1107207</t>
+  </si>
+  <si>
+    <t>A1107208</t>
+  </si>
+  <si>
+    <t>A1107209</t>
+  </si>
+  <si>
+    <t>A1107210</t>
+  </si>
+  <si>
+    <t>A1107211</t>
+  </si>
+  <si>
+    <t>A1107212</t>
+  </si>
+  <si>
+    <t>A1107301</t>
+  </si>
+  <si>
+    <t>20221110-Cocci-120846</t>
+  </si>
+  <si>
+    <t>A1107302</t>
+  </si>
+  <si>
+    <t>A1107303</t>
+  </si>
+  <si>
+    <t>A1107304</t>
+  </si>
+  <si>
+    <t>A1107305</t>
+  </si>
+  <si>
+    <t>A1107306</t>
+  </si>
+  <si>
+    <t>A1107307</t>
+  </si>
+  <si>
+    <t>A1107308</t>
+  </si>
+  <si>
+    <t>A1107309</t>
+  </si>
+  <si>
+    <t>A1107310</t>
+  </si>
+  <si>
+    <t>A1107311</t>
+  </si>
+  <si>
+    <t>A1107312</t>
+  </si>
+  <si>
+    <t>A1107401</t>
+  </si>
+  <si>
+    <t>1021010</t>
+  </si>
+  <si>
+    <t>20221110-Cocci-130846</t>
+  </si>
+  <si>
+    <t>A00373</t>
+  </si>
+  <si>
+    <t>A1107402</t>
+  </si>
+  <si>
+    <t>A1107403</t>
+  </si>
+  <si>
+    <t>A1107404</t>
+  </si>
+  <si>
+    <t>A1107405</t>
+  </si>
+  <si>
+    <t>A1107406</t>
+  </si>
+  <si>
+    <t>A1107407</t>
+  </si>
+  <si>
+    <t>A1107408</t>
+  </si>
+  <si>
+    <t>A1107409</t>
+  </si>
+  <si>
+    <t>A1107410</t>
+  </si>
+  <si>
+    <t>A1107411</t>
+  </si>
+  <si>
+    <t>A1107412</t>
+  </si>
+  <si>
+    <t>A1108301</t>
+  </si>
+  <si>
+    <t>20221111-Cocci-40724</t>
+  </si>
+  <si>
+    <t>11/11/2022</t>
+  </si>
+  <si>
+    <t>2:07 PM</t>
+  </si>
+  <si>
+    <t>CartridgeCocci0724</t>
+  </si>
+  <si>
+    <t>A1108302</t>
+  </si>
+  <si>
+    <t>A1108303</t>
+  </si>
+  <si>
+    <t>A1108304</t>
+  </si>
+  <si>
+    <t>A1108305</t>
+  </si>
+  <si>
+    <t>A1108306</t>
+  </si>
+  <si>
+    <t>A1108307</t>
+  </si>
+  <si>
+    <t>A1108308</t>
+  </si>
+  <si>
+    <t>A1108309</t>
+  </si>
+  <si>
+    <t>A1108310</t>
+  </si>
+  <si>
+    <t>A1108311</t>
+  </si>
+  <si>
+    <t>A1108312</t>
+  </si>
+  <si>
+    <t>A1108401</t>
+  </si>
+  <si>
+    <t>20221111-Cocci-51134</t>
+  </si>
+  <si>
+    <t>2:11 PM</t>
+  </si>
+  <si>
+    <t>CartridgeCocci1134</t>
+  </si>
+  <si>
+    <t>A1108402</t>
+  </si>
+  <si>
+    <t>A1108403</t>
+  </si>
+  <si>
+    <t>A1108404</t>
+  </si>
+  <si>
+    <t>A1108405</t>
+  </si>
+  <si>
+    <t>A1108406</t>
+  </si>
+  <si>
+    <t>A1108407</t>
+  </si>
+  <si>
+    <t>A1108408</t>
+  </si>
+  <si>
+    <t>A1108409</t>
+  </si>
+  <si>
+    <t>A1108410</t>
+  </si>
+  <si>
+    <t>A1108411</t>
+  </si>
+  <si>
+    <t>A1108412</t>
+  </si>
+  <si>
+    <t>A1108501</t>
+  </si>
+  <si>
+    <t>20221111-Cocci-61134</t>
+  </si>
+  <si>
+    <t>12/10/2022</t>
+  </si>
+  <si>
+    <t>A1108502</t>
+  </si>
+  <si>
+    <t>A1108503</t>
+  </si>
+  <si>
+    <t>A1108504</t>
+  </si>
+  <si>
+    <t>A1108505</t>
+  </si>
+  <si>
+    <t>A1108506</t>
+  </si>
+  <si>
+    <t>A1108507</t>
+  </si>
+  <si>
+    <t>A1108508</t>
+  </si>
+  <si>
+    <t>A1108509</t>
+  </si>
+  <si>
+    <t>A1108510</t>
+  </si>
+  <si>
+    <t>A1108511</t>
+  </si>
+  <si>
+    <t>A1108512</t>
+  </si>
+  <si>
+    <t>A1108601</t>
+  </si>
+  <si>
+    <t>20221111-Cocci-71134</t>
+  </si>
+  <si>
+    <t>11/28/2022</t>
+  </si>
+  <si>
+    <t>A1108602</t>
+  </si>
+  <si>
+    <t>A1108603</t>
+  </si>
+  <si>
+    <t>A1108604</t>
+  </si>
+  <si>
+    <t>A1108605</t>
+  </si>
+  <si>
+    <t>A1108606</t>
+  </si>
+  <si>
+    <t>A1108607</t>
+  </si>
+  <si>
+    <t>A1108608</t>
+  </si>
+  <si>
+    <t>A1108609</t>
+  </si>
+  <si>
+    <t>A1108610</t>
+  </si>
+  <si>
+    <t>A1108611</t>
+  </si>
+  <si>
+    <t>A1108612</t>
+  </si>
+  <si>
+    <t>A1108701</t>
+  </si>
+  <si>
+    <t>20221111-Cocci-82151</t>
+  </si>
+  <si>
+    <t>2:21 PM</t>
+  </si>
+  <si>
+    <t>CartridgeCocci2151</t>
+  </si>
+  <si>
+    <t>A1108702</t>
+  </si>
+  <si>
+    <t>A1108703</t>
+  </si>
+  <si>
+    <t>A1108704</t>
+  </si>
+  <si>
+    <t>A1108705</t>
+  </si>
+  <si>
+    <t>A1108706</t>
+  </si>
+  <si>
+    <t>A1108707</t>
+  </si>
+  <si>
+    <t>A1108708</t>
+  </si>
+  <si>
+    <t>A1108709</t>
+  </si>
+  <si>
+    <t>A1108710</t>
+  </si>
+  <si>
+    <t>A1108711</t>
+  </si>
+  <si>
+    <t>A1108712</t>
+  </si>
+  <si>
+    <t>A1108801</t>
+  </si>
+  <si>
+    <t>20221111-Cocci-92151</t>
+  </si>
+  <si>
+    <t>A1108802</t>
+  </si>
+  <si>
+    <t>A1108803</t>
+  </si>
+  <si>
+    <t>A1108804</t>
+  </si>
+  <si>
+    <t>A1108805</t>
+  </si>
+  <si>
+    <t>A1108806</t>
+  </si>
+  <si>
+    <t>A1108807</t>
+  </si>
+  <si>
+    <t>A1108808</t>
+  </si>
+  <si>
+    <t>A1108809</t>
+  </si>
+  <si>
+    <t>A1108810</t>
+  </si>
+  <si>
+    <t>A1108811</t>
+  </si>
+  <si>
+    <t>A1108812</t>
+  </si>
+  <si>
+    <t>A1108901</t>
+  </si>
+  <si>
+    <t>20221111-Cocci-102151</t>
+  </si>
+  <si>
+    <t>12/05/2022</t>
+  </si>
+  <si>
+    <t>A1108902</t>
+  </si>
+  <si>
+    <t>A1108903</t>
+  </si>
+  <si>
+    <t>A1108904</t>
+  </si>
+  <si>
+    <t>A1108905</t>
+  </si>
+  <si>
+    <t>A1108906</t>
+  </si>
+  <si>
+    <t>A1108907</t>
+  </si>
+  <si>
+    <t>A1108908</t>
+  </si>
+  <si>
+    <t>A1108909</t>
+  </si>
+  <si>
+    <t>A1108910</t>
+  </si>
+  <si>
+    <t>A1108911</t>
+  </si>
+  <si>
+    <t>A1108912</t>
+  </si>
+  <si>
+    <t>A1109001</t>
+  </si>
+  <si>
+    <t>20221111-Cocci-112151</t>
+  </si>
+  <si>
+    <t>12/25/2022</t>
+  </si>
+  <si>
+    <t>A1109002</t>
+  </si>
+  <si>
+    <t>A1109003</t>
+  </si>
+  <si>
+    <t>A1109004</t>
+  </si>
+  <si>
+    <t>A1109005</t>
+  </si>
+  <si>
+    <t>A1109006</t>
+  </si>
+  <si>
+    <t>A1109007</t>
+  </si>
+  <si>
+    <t>A1109008</t>
+  </si>
+  <si>
+    <t>A1109009</t>
+  </si>
+  <si>
+    <t>A1109010</t>
+  </si>
+  <si>
+    <t>A1109011</t>
+  </si>
+  <si>
+    <t>A1109012</t>
+  </si>
+  <si>
+    <t>A1109101</t>
+  </si>
+  <si>
+    <t>20221111-Cocci-124731</t>
+  </si>
+  <si>
+    <t>2:47 PM</t>
+  </si>
+  <si>
+    <t>CartridgeCocci4731</t>
+  </si>
+  <si>
+    <t>11/13/2022</t>
+  </si>
+  <si>
+    <t>A1109102</t>
+  </si>
+  <si>
+    <t>A1109103</t>
+  </si>
+  <si>
+    <t>A1109104</t>
+  </si>
+  <si>
+    <t>A1109105</t>
+  </si>
+  <si>
+    <t>A1109106</t>
+  </si>
+  <si>
+    <t>A1109107</t>
+  </si>
+  <si>
+    <t>A1109108</t>
+  </si>
+  <si>
+    <t>A1109109</t>
+  </si>
+  <si>
+    <t>A1109110</t>
+  </si>
+  <si>
+    <t>A1109111</t>
+  </si>
+  <si>
+    <t>A1109112</t>
+  </si>
+  <si>
+    <t>A1109201</t>
+  </si>
+  <si>
+    <t>20221111-Cocci-134731</t>
+  </si>
+  <si>
+    <t>A1109202</t>
+  </si>
+  <si>
+    <t>A1109203</t>
+  </si>
+  <si>
+    <t>A1109204</t>
+  </si>
+  <si>
+    <t>A1109205</t>
+  </si>
+  <si>
+    <t>A1109206</t>
+  </si>
+  <si>
+    <t>A1109207</t>
+  </si>
+  <si>
+    <t>A1109208</t>
+  </si>
+  <si>
+    <t>A1109209</t>
+  </si>
+  <si>
+    <t>A1109210</t>
+  </si>
+  <si>
+    <t>A1109211</t>
+  </si>
+  <si>
+    <t>A1109212</t>
+  </si>
+  <si>
+    <t>A1109301</t>
+  </si>
+  <si>
+    <t>20221111-Cocci-125718</t>
+  </si>
+  <si>
+    <t>A00375</t>
+  </si>
+  <si>
+    <t>2:57 PM</t>
+  </si>
+  <si>
+    <t>CartridgeCocci5718</t>
+  </si>
+  <si>
+    <t>A1109302</t>
+  </si>
+  <si>
+    <t>A1109303</t>
+  </si>
+  <si>
+    <t>A1109304</t>
+  </si>
+  <si>
+    <t>A1109305</t>
+  </si>
+  <si>
+    <t>A1109306</t>
+  </si>
+  <si>
+    <t>A1109307</t>
+  </si>
+  <si>
+    <t>A1109308</t>
+  </si>
+  <si>
+    <t>A1109309</t>
+  </si>
+  <si>
+    <t>A1109310</t>
+  </si>
+  <si>
+    <t>A1109311</t>
+  </si>
+  <si>
+    <t>A1109312</t>
   </si>
 </sst>
 </file>
@@ -5591,10 +6638,10 @@
     </row>
     <row r="2" spans="1:25" ht="16.2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>1685</v>
+        <v>2033</v>
       </c>
       <c r="B2" t="s">
-        <v>1686</v>
+        <v>1822</v>
       </c>
       <c r="C2" t="s">
         <v>25</v>
@@ -5603,7 +6650,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>1687</v>
+        <v>2034</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
@@ -5618,7 +6665,7 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>1688</v>
+        <v>2035</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -5627,10 +6674,10 @@
         <v>25</v>
       </c>
       <c r="M2" t="s">
-        <v>1533</v>
+        <v>1704</v>
       </c>
       <c r="N2" t="s">
-        <v>1534</v>
+        <v>1705</v>
       </c>
       <c r="O2" t="s">
         <v>25</v>
@@ -5642,25 +6689,25 @@
         <v>28</v>
       </c>
       <c r="R2" t="s">
-        <v>1535</v>
+        <v>1891</v>
       </c>
       <c r="S2" t="s">
-        <v>1672</v>
+        <v>2036</v>
       </c>
       <c r="T2" t="s">
-        <v>1673</v>
+        <v>2037</v>
       </c>
       <c r="U2" t="s">
         <v>26</v>
       </c>
       <c r="V2" t="s">
-        <v>27</v>
+        <v>1709</v>
       </c>
       <c r="W2" t="s">
         <v>25</v>
       </c>
       <c r="X2" t="s">
-        <v>1656</v>
+        <v>2008</v>
       </c>
       <c r="Y2" t="s">
         <v>25</v>
@@ -5668,10 +6715,10 @@
     </row>
     <row r="3" spans="1:25" ht="16.2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>1689</v>
+        <v>2038</v>
       </c>
       <c r="B3" t="s">
-        <v>1686</v>
+        <v>1822</v>
       </c>
       <c r="C3" t="s">
         <v>25</v>
@@ -5680,7 +6727,7 @@
         <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>1687</v>
+        <v>2034</v>
       </c>
       <c r="F3" t="s">
         <v>25</v>
@@ -5695,7 +6742,7 @@
         <v>25</v>
       </c>
       <c r="J3" t="s">
-        <v>1688</v>
+        <v>2035</v>
       </c>
       <c r="K3" t="s">
         <v>25</v>
@@ -5704,10 +6751,10 @@
         <v>25</v>
       </c>
       <c r="M3" t="s">
-        <v>1533</v>
+        <v>1704</v>
       </c>
       <c r="N3" t="s">
-        <v>1534</v>
+        <v>1705</v>
       </c>
       <c r="O3" t="s">
         <v>25</v>
@@ -5719,25 +6766,25 @@
         <v>29</v>
       </c>
       <c r="R3" t="s">
-        <v>1535</v>
+        <v>1891</v>
       </c>
       <c r="S3" t="s">
-        <v>1672</v>
+        <v>2036</v>
       </c>
       <c r="T3" t="s">
-        <v>1673</v>
+        <v>2037</v>
       </c>
       <c r="U3" t="s">
         <v>26</v>
       </c>
       <c r="V3" t="s">
-        <v>27</v>
+        <v>1709</v>
       </c>
       <c r="W3" t="s">
         <v>25</v>
       </c>
       <c r="X3" t="s">
-        <v>1656</v>
+        <v>2008</v>
       </c>
       <c r="Y3" t="s">
         <v>25</v>
@@ -5745,10 +6792,10 @@
     </row>
     <row r="4" spans="1:25" ht="16.2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>1690</v>
+        <v>2039</v>
       </c>
       <c r="B4" t="s">
-        <v>1686</v>
+        <v>1822</v>
       </c>
       <c r="C4" t="s">
         <v>25</v>
@@ -5757,7 +6804,7 @@
         <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>1687</v>
+        <v>2034</v>
       </c>
       <c r="F4" t="s">
         <v>25</v>
@@ -5772,7 +6819,7 @@
         <v>25</v>
       </c>
       <c r="J4" t="s">
-        <v>1688</v>
+        <v>2035</v>
       </c>
       <c r="K4" t="s">
         <v>25</v>
@@ -5781,10 +6828,10 @@
         <v>25</v>
       </c>
       <c r="M4" t="s">
-        <v>1533</v>
+        <v>1704</v>
       </c>
       <c r="N4" t="s">
-        <v>1534</v>
+        <v>1705</v>
       </c>
       <c r="O4" t="s">
         <v>25</v>
@@ -5796,25 +6843,25 @@
         <v>30</v>
       </c>
       <c r="R4" t="s">
-        <v>1535</v>
+        <v>1891</v>
       </c>
       <c r="S4" t="s">
-        <v>1672</v>
+        <v>2036</v>
       </c>
       <c r="T4" t="s">
-        <v>1673</v>
+        <v>2037</v>
       </c>
       <c r="U4" t="s">
         <v>26</v>
       </c>
       <c r="V4" t="s">
-        <v>27</v>
+        <v>1709</v>
       </c>
       <c r="W4" t="s">
         <v>25</v>
       </c>
       <c r="X4" t="s">
-        <v>1656</v>
+        <v>2008</v>
       </c>
       <c r="Y4" t="s">
         <v>25</v>
@@ -5822,10 +6869,10 @@
     </row>
     <row r="5" spans="1:25" ht="16.2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>1691</v>
+        <v>2040</v>
       </c>
       <c r="B5" t="s">
-        <v>1686</v>
+        <v>1822</v>
       </c>
       <c r="C5" t="s">
         <v>25</v>
@@ -5834,7 +6881,7 @@
         <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>1687</v>
+        <v>2034</v>
       </c>
       <c r="F5" t="s">
         <v>25</v>
@@ -5849,7 +6896,7 @@
         <v>25</v>
       </c>
       <c r="J5" t="s">
-        <v>1688</v>
+        <v>2035</v>
       </c>
       <c r="K5" t="s">
         <v>25</v>
@@ -5858,10 +6905,10 @@
         <v>25</v>
       </c>
       <c r="M5" t="s">
-        <v>1533</v>
+        <v>1704</v>
       </c>
       <c r="N5" t="s">
-        <v>1534</v>
+        <v>1705</v>
       </c>
       <c r="O5" t="s">
         <v>25</v>
@@ -5873,25 +6920,25 @@
         <v>31</v>
       </c>
       <c r="R5" t="s">
-        <v>1535</v>
+        <v>1891</v>
       </c>
       <c r="S5" t="s">
-        <v>1672</v>
+        <v>2036</v>
       </c>
       <c r="T5" t="s">
-        <v>1673</v>
+        <v>2037</v>
       </c>
       <c r="U5" t="s">
         <v>26</v>
       </c>
       <c r="V5" t="s">
-        <v>27</v>
+        <v>1709</v>
       </c>
       <c r="W5" t="s">
         <v>25</v>
       </c>
       <c r="X5" t="s">
-        <v>1656</v>
+        <v>2008</v>
       </c>
       <c r="Y5" t="s">
         <v>25</v>
@@ -5899,10 +6946,10 @@
     </row>
     <row r="6" spans="1:25" ht="16.2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>1692</v>
+        <v>2041</v>
       </c>
       <c r="B6" t="s">
-        <v>1686</v>
+        <v>1822</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
@@ -5911,7 +6958,7 @@
         <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>1687</v>
+        <v>2034</v>
       </c>
       <c r="F6" t="s">
         <v>25</v>
@@ -5926,7 +6973,7 @@
         <v>25</v>
       </c>
       <c r="J6" t="s">
-        <v>1688</v>
+        <v>2035</v>
       </c>
       <c r="K6" t="s">
         <v>25</v>
@@ -5935,10 +6982,10 @@
         <v>25</v>
       </c>
       <c r="M6" t="s">
-        <v>1533</v>
+        <v>1704</v>
       </c>
       <c r="N6" t="s">
-        <v>1534</v>
+        <v>1705</v>
       </c>
       <c r="O6" t="s">
         <v>25</v>
@@ -5950,25 +6997,25 @@
         <v>32</v>
       </c>
       <c r="R6" t="s">
-        <v>1535</v>
+        <v>1891</v>
       </c>
       <c r="S6" t="s">
-        <v>1672</v>
+        <v>2036</v>
       </c>
       <c r="T6" t="s">
-        <v>1673</v>
+        <v>2037</v>
       </c>
       <c r="U6" t="s">
         <v>26</v>
       </c>
       <c r="V6" t="s">
-        <v>27</v>
+        <v>1709</v>
       </c>
       <c r="W6" t="s">
         <v>25</v>
       </c>
       <c r="X6" t="s">
-        <v>1656</v>
+        <v>2008</v>
       </c>
       <c r="Y6" t="s">
         <v>25</v>
@@ -5976,10 +7023,10 @@
     </row>
     <row r="7" spans="1:25" ht="16.2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>1693</v>
+        <v>2042</v>
       </c>
       <c r="B7" t="s">
-        <v>1686</v>
+        <v>1822</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
@@ -5988,7 +7035,7 @@
         <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>1687</v>
+        <v>2034</v>
       </c>
       <c r="F7" t="s">
         <v>25</v>
@@ -6003,7 +7050,7 @@
         <v>25</v>
       </c>
       <c r="J7" t="s">
-        <v>1688</v>
+        <v>2035</v>
       </c>
       <c r="K7" t="s">
         <v>25</v>
@@ -6012,10 +7059,10 @@
         <v>25</v>
       </c>
       <c r="M7" t="s">
-        <v>1533</v>
+        <v>1704</v>
       </c>
       <c r="N7" t="s">
-        <v>1534</v>
+        <v>1705</v>
       </c>
       <c r="O7" t="s">
         <v>25</v>
@@ -6027,25 +7074,25 @@
         <v>33</v>
       </c>
       <c r="R7" t="s">
-        <v>1535</v>
+        <v>1891</v>
       </c>
       <c r="S7" t="s">
-        <v>1672</v>
+        <v>2036</v>
       </c>
       <c r="T7" t="s">
-        <v>1673</v>
+        <v>2037</v>
       </c>
       <c r="U7" t="s">
         <v>26</v>
       </c>
       <c r="V7" t="s">
-        <v>27</v>
+        <v>1709</v>
       </c>
       <c r="W7" t="s">
         <v>25</v>
       </c>
       <c r="X7" t="s">
-        <v>1656</v>
+        <v>2008</v>
       </c>
       <c r="Y7" t="s">
         <v>25</v>
@@ -6053,10 +7100,10 @@
     </row>
     <row r="8" spans="1:25" ht="16.2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>1694</v>
+        <v>2043</v>
       </c>
       <c r="B8" t="s">
-        <v>1686</v>
+        <v>1822</v>
       </c>
       <c r="C8" t="s">
         <v>25</v>
@@ -6065,7 +7112,7 @@
         <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>1687</v>
+        <v>2034</v>
       </c>
       <c r="F8" t="s">
         <v>25</v>
@@ -6080,7 +7127,7 @@
         <v>25</v>
       </c>
       <c r="J8" t="s">
-        <v>1688</v>
+        <v>2035</v>
       </c>
       <c r="K8" t="s">
         <v>25</v>
@@ -6089,10 +7136,10 @@
         <v>25</v>
       </c>
       <c r="M8" t="s">
-        <v>1533</v>
+        <v>1704</v>
       </c>
       <c r="N8" t="s">
-        <v>1534</v>
+        <v>1705</v>
       </c>
       <c r="O8" t="s">
         <v>25</v>
@@ -6104,25 +7151,25 @@
         <v>34</v>
       </c>
       <c r="R8" t="s">
-        <v>1535</v>
+        <v>1891</v>
       </c>
       <c r="S8" t="s">
-        <v>1672</v>
+        <v>2036</v>
       </c>
       <c r="T8" t="s">
-        <v>1673</v>
+        <v>2037</v>
       </c>
       <c r="U8" t="s">
         <v>26</v>
       </c>
       <c r="V8" t="s">
-        <v>27</v>
+        <v>1709</v>
       </c>
       <c r="W8" t="s">
         <v>25</v>
       </c>
       <c r="X8" t="s">
-        <v>1656</v>
+        <v>2008</v>
       </c>
       <c r="Y8" t="s">
         <v>25</v>
@@ -6130,10 +7177,10 @@
     </row>
     <row r="9" spans="1:25" ht="16.2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>1695</v>
+        <v>2044</v>
       </c>
       <c r="B9" t="s">
-        <v>1686</v>
+        <v>1822</v>
       </c>
       <c r="C9" t="s">
         <v>25</v>
@@ -6142,7 +7189,7 @@
         <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>1687</v>
+        <v>2034</v>
       </c>
       <c r="F9" t="s">
         <v>25</v>
@@ -6157,7 +7204,7 @@
         <v>25</v>
       </c>
       <c r="J9" t="s">
-        <v>1688</v>
+        <v>2035</v>
       </c>
       <c r="K9" t="s">
         <v>25</v>
@@ -6166,10 +7213,10 @@
         <v>25</v>
       </c>
       <c r="M9" t="s">
-        <v>1533</v>
+        <v>1704</v>
       </c>
       <c r="N9" t="s">
-        <v>1534</v>
+        <v>1705</v>
       </c>
       <c r="O9" t="s">
         <v>25</v>
@@ -6181,25 +7228,25 @@
         <v>35</v>
       </c>
       <c r="R9" t="s">
-        <v>1535</v>
+        <v>1891</v>
       </c>
       <c r="S9" t="s">
-        <v>1672</v>
+        <v>2036</v>
       </c>
       <c r="T9" t="s">
-        <v>1673</v>
+        <v>2037</v>
       </c>
       <c r="U9" t="s">
         <v>26</v>
       </c>
       <c r="V9" t="s">
-        <v>27</v>
+        <v>1709</v>
       </c>
       <c r="W9" t="s">
         <v>25</v>
       </c>
       <c r="X9" t="s">
-        <v>1656</v>
+        <v>2008</v>
       </c>
       <c r="Y9" t="s">
         <v>25</v>
@@ -6207,10 +7254,10 @@
     </row>
     <row r="10" spans="1:25" ht="16.2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>1696</v>
+        <v>2045</v>
       </c>
       <c r="B10" t="s">
-        <v>1686</v>
+        <v>1822</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
@@ -6219,7 +7266,7 @@
         <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>1687</v>
+        <v>2034</v>
       </c>
       <c r="F10" t="s">
         <v>25</v>
@@ -6234,7 +7281,7 @@
         <v>25</v>
       </c>
       <c r="J10" t="s">
-        <v>1688</v>
+        <v>2035</v>
       </c>
       <c r="K10" t="s">
         <v>25</v>
@@ -6243,10 +7290,10 @@
         <v>25</v>
       </c>
       <c r="M10" t="s">
-        <v>1533</v>
+        <v>1704</v>
       </c>
       <c r="N10" t="s">
-        <v>1534</v>
+        <v>1705</v>
       </c>
       <c r="O10" t="s">
         <v>25</v>
@@ -6258,25 +7305,25 @@
         <v>36</v>
       </c>
       <c r="R10" t="s">
-        <v>1535</v>
+        <v>1891</v>
       </c>
       <c r="S10" t="s">
-        <v>1672</v>
+        <v>2036</v>
       </c>
       <c r="T10" t="s">
-        <v>1673</v>
+        <v>2037</v>
       </c>
       <c r="U10" t="s">
         <v>26</v>
       </c>
       <c r="V10" t="s">
-        <v>27</v>
+        <v>1709</v>
       </c>
       <c r="W10" t="s">
         <v>25</v>
       </c>
       <c r="X10" t="s">
-        <v>1656</v>
+        <v>2008</v>
       </c>
       <c r="Y10" t="s">
         <v>25</v>
@@ -6284,10 +7331,10 @@
     </row>
     <row r="11" spans="1:25" ht="16.2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>1697</v>
+        <v>2046</v>
       </c>
       <c r="B11" t="s">
-        <v>1686</v>
+        <v>1822</v>
       </c>
       <c r="C11" t="s">
         <v>25</v>
@@ -6296,7 +7343,7 @@
         <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>1687</v>
+        <v>2034</v>
       </c>
       <c r="F11" t="s">
         <v>25</v>
@@ -6311,7 +7358,7 @@
         <v>25</v>
       </c>
       <c r="J11" t="s">
-        <v>1688</v>
+        <v>2035</v>
       </c>
       <c r="K11" t="s">
         <v>25</v>
@@ -6320,10 +7367,10 @@
         <v>25</v>
       </c>
       <c r="M11" t="s">
-        <v>1533</v>
+        <v>1704</v>
       </c>
       <c r="N11" t="s">
-        <v>1534</v>
+        <v>1705</v>
       </c>
       <c r="O11" t="s">
         <v>25</v>
@@ -6335,25 +7382,25 @@
         <v>37</v>
       </c>
       <c r="R11" t="s">
-        <v>1535</v>
+        <v>1891</v>
       </c>
       <c r="S11" t="s">
-        <v>1672</v>
+        <v>2036</v>
       </c>
       <c r="T11" t="s">
-        <v>1673</v>
+        <v>2037</v>
       </c>
       <c r="U11" t="s">
         <v>26</v>
       </c>
       <c r="V11" t="s">
-        <v>27</v>
+        <v>1709</v>
       </c>
       <c r="W11" t="s">
         <v>25</v>
       </c>
       <c r="X11" t="s">
-        <v>1656</v>
+        <v>2008</v>
       </c>
       <c r="Y11" t="s">
         <v>25</v>
@@ -6361,10 +7408,10 @@
     </row>
     <row r="12" spans="1:25" ht="16.2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>1698</v>
+        <v>2047</v>
       </c>
       <c r="B12" t="s">
-        <v>1686</v>
+        <v>1822</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
@@ -6373,7 +7420,7 @@
         <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>1687</v>
+        <v>2034</v>
       </c>
       <c r="F12" t="s">
         <v>25</v>
@@ -6388,7 +7435,7 @@
         <v>25</v>
       </c>
       <c r="J12" t="s">
-        <v>1688</v>
+        <v>2035</v>
       </c>
       <c r="K12" t="s">
         <v>25</v>
@@ -6397,10 +7444,10 @@
         <v>25</v>
       </c>
       <c r="M12" t="s">
-        <v>1533</v>
+        <v>1704</v>
       </c>
       <c r="N12" t="s">
-        <v>1534</v>
+        <v>1705</v>
       </c>
       <c r="O12" t="s">
         <v>25</v>
@@ -6412,25 +7459,25 @@
         <v>38</v>
       </c>
       <c r="R12" t="s">
-        <v>1535</v>
+        <v>1891</v>
       </c>
       <c r="S12" t="s">
-        <v>1672</v>
+        <v>2036</v>
       </c>
       <c r="T12" t="s">
-        <v>1673</v>
+        <v>2037</v>
       </c>
       <c r="U12" t="s">
         <v>26</v>
       </c>
       <c r="V12" t="s">
-        <v>27</v>
+        <v>1709</v>
       </c>
       <c r="W12" t="s">
         <v>25</v>
       </c>
       <c r="X12" t="s">
-        <v>1656</v>
+        <v>2008</v>
       </c>
       <c r="Y12" t="s">
         <v>25</v>
@@ -6438,10 +7485,10 @@
     </row>
     <row r="13" spans="1:25" ht="16.2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>1699</v>
+        <v>2048</v>
       </c>
       <c r="B13" t="s">
-        <v>1686</v>
+        <v>1822</v>
       </c>
       <c r="C13" t="s">
         <v>25</v>
@@ -6450,7 +7497,7 @@
         <v>25</v>
       </c>
       <c r="E13" t="s">
-        <v>1687</v>
+        <v>2034</v>
       </c>
       <c r="F13" t="s">
         <v>25</v>
@@ -6465,7 +7512,7 @@
         <v>25</v>
       </c>
       <c r="J13" t="s">
-        <v>1688</v>
+        <v>2035</v>
       </c>
       <c r="K13" t="s">
         <v>25</v>
@@ -6474,10 +7521,10 @@
         <v>25</v>
       </c>
       <c r="M13" t="s">
-        <v>1533</v>
+        <v>1704</v>
       </c>
       <c r="N13" t="s">
-        <v>1534</v>
+        <v>1705</v>
       </c>
       <c r="O13" t="s">
         <v>25</v>
@@ -6489,25 +7536,25 @@
         <v>39</v>
       </c>
       <c r="R13" t="s">
-        <v>1535</v>
+        <v>1891</v>
       </c>
       <c r="S13" t="s">
-        <v>1672</v>
+        <v>2036</v>
       </c>
       <c r="T13" t="s">
-        <v>1673</v>
+        <v>2037</v>
       </c>
       <c r="U13" t="s">
         <v>26</v>
       </c>
       <c r="V13" t="s">
-        <v>27</v>
+        <v>1709</v>
       </c>
       <c r="W13" t="s">
         <v>25</v>
       </c>
       <c r="X13" t="s">
-        <v>1656</v>
+        <v>2008</v>
       </c>
       <c r="Y13" t="s">
         <v>25</v>
